--- a/dataSources/WSR/ICS.xlsx
+++ b/dataSources/WSR/ICS.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90339EC6-A19D-4C75-817B-D8631D862855}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0868E16-E669-43B1-A4E3-CDB3F9516D4E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6 Nov 2023" sheetId="1" r:id="rId1"/>
-    <sheet name="13 Nov 2023" sheetId="2" r:id="rId2"/>
-    <sheet name="20 Nov 2023" sheetId="5" r:id="rId3"/>
-    <sheet name="27 Nov 2023" sheetId="6" r:id="rId4"/>
+    <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
+    <sheet name="9 Oct 2023" sheetId="10" r:id="rId2"/>
+    <sheet name="16 Oct 2023" sheetId="9" r:id="rId3"/>
+    <sheet name="23 Oct 2023" sheetId="7" r:id="rId4"/>
+    <sheet name="30 Oct 2023" sheetId="8" r:id="rId5"/>
+    <sheet name="6 Nov 2023" sheetId="1" r:id="rId6"/>
+    <sheet name="13 Nov 2023" sheetId="2" r:id="rId7"/>
+    <sheet name="20 Nov 2023" sheetId="5" r:id="rId8"/>
+    <sheet name="27 Nov 2023" sheetId="6" r:id="rId9"/>
+    <sheet name="4 Dec 2023" sheetId="14" r:id="rId10"/>
+    <sheet name="11 Dec 2023" sheetId="13" r:id="rId11"/>
+    <sheet name="18 Dec 2023" sheetId="12" r:id="rId12"/>
+    <sheet name="26 Dec 2023" sheetId="15" r:id="rId13"/>
+    <sheet name="2 Jan 2024" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="235">
   <si>
     <t>Task Name</t>
   </si>
@@ -98,10 +108,16 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>Week Data Type</t>
+  </si>
+  <si>
+    <t>Week Count</t>
+  </si>
+  <si>
+    <t>Total Data Type</t>
+  </si>
+  <si>
+    <t>Total Count</t>
   </si>
   <si>
     <t>Attended Stand up call</t>
@@ -116,13 +132,337 @@
     <t>Completed</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
+    <r>
+      <t>Attend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sprint Sizing and Backlog Refinement call</t>
+    </r>
+  </si>
+  <si>
+    <t>Yet to attend</t>
+  </si>
+  <si>
+    <t>No defect logged for the week.</t>
+  </si>
+  <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
+    <t>Attended Sprint review &amp; Retrospective meeting</t>
+  </si>
+  <si>
+    <t>Venkateswaran. Karuppian Ganesan</t>
+  </si>
+  <si>
+    <t>Sprint Review and Retrospective meeting</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend Weekly Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> with Business</t>
+    </r>
+  </si>
+  <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
+    <t>Attended Sprint planning call</t>
+  </si>
+  <si>
+    <t>Hrushikeshreddy Ambati</t>
+  </si>
+  <si>
+    <t>Sprint Planning meeting</t>
+  </si>
+  <si>
+    <t>HICA-2596: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Yet to start</t>
+  </si>
+  <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
+  </si>
+  <si>
+    <t>Attended Weekly call with Business</t>
+  </si>
+  <si>
+    <r>
+      <t>Attended Weekly call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> with Business</t>
+    </r>
+  </si>
+  <si>
+    <t>Automation execution</t>
+  </si>
+  <si>
+    <t>Total automation execution</t>
+  </si>
+  <si>
+    <t>Execution of HICA-2563</t>
+  </si>
+  <si>
+    <t>HICA-2563:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Bugs Identified</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Execution of HICA-2603</t>
+  </si>
+  <si>
+    <t>HICA-2603: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Automation coverage %</t>
+  </si>
+  <si>
+    <t>Testcase preparation of HICA-2596</t>
+  </si>
+  <si>
+    <t>HICA-2596: Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Call with Mehul</t>
+  </si>
+  <si>
+    <t>Call with Sibin</t>
+  </si>
+  <si>
+    <t>KT to Venkat on ICS modules</t>
+  </si>
+  <si>
     <t>Attend Sprint Review and Retrospective Meeting</t>
   </si>
   <si>
-    <t>Yet to attend</t>
-  </si>
-  <si>
-    <t> </t>
+    <t>No defect logged for the week</t>
+  </si>
+  <si>
+    <t>Attended Sizing and Backlog Refinement meeting</t>
+  </si>
+  <si>
+    <t>Attended Sizing and Backlog Refinement</t>
+  </si>
+  <si>
+    <t>Attend Spring Planning call</t>
+  </si>
+  <si>
+    <t>Test  Scenario Preparation of HICA-2596</t>
+  </si>
+  <si>
+    <t>HICA-2596:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>HICA-1909:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Yet to Start</t>
+  </si>
+  <si>
+    <t>Test  Scenario Preparation of HICA-2613</t>
+  </si>
+  <si>
+    <t>HICA-2596:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>HICA-1909: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t> 9/11/2023</t>
+  </si>
+  <si>
+    <t>Execution of HICA-2596</t>
+  </si>
+  <si>
+    <t>HICA-2613:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Execution of HICA-2613</t>
+  </si>
+  <si>
+    <t>HICA-2613:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Prepared SDLC document for HICA-2613</t>
+  </si>
+  <si>
+    <t>HICA-853: Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Call with Venkat</t>
+  </si>
+  <si>
+    <t>HICA-853: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Call with Ayesha</t>
+  </si>
+  <si>
+    <t>Analysis of HICA-1909</t>
+  </si>
+  <si>
+    <t>Attended Sprint Planning meeting</t>
+  </si>
+  <si>
+    <t>Work on the developed sprint items for Testing and Test scenarios</t>
+  </si>
+  <si>
+    <t>Test  Scenario Preparation of HICA-1909</t>
+  </si>
+  <si>
+    <t>HICA-1909:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Analyzed  test scenario for HICA-1909</t>
+  </si>
+  <si>
+    <t>Test  Scenario Execution of HICA-1909</t>
+  </si>
+  <si>
+    <t>Call with Shantanu</t>
+  </si>
+  <si>
+    <t>HICA-2777 </t>
+  </si>
+  <si>
+    <t>Verification PointSpecialAllocation page: Modified Paying entity is not displayed in the Verification page.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Sibin</t>
+  </si>
+  <si>
+    <t>Attended Weekly meeting with Business</t>
+  </si>
+  <si>
+    <t>Attended Business call about PE issue for PSA</t>
+  </si>
+  <si>
+    <t>HICA-1909:QA document Preparation</t>
+  </si>
+  <si>
+    <t>HICA-2493:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>QA document preparation for HICA-1909</t>
+  </si>
+  <si>
+    <t>HICA-2773: Test Scenario execution</t>
+  </si>
+  <si>
+    <t>HICA-1636: Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Test case preparation for HICA-2493</t>
+  </si>
+  <si>
+    <t>HICA-2773: QA document execution</t>
+  </si>
+  <si>
+    <t>HICA-1636: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Test  Scenario Execution of HICA-2493</t>
+  </si>
+  <si>
+    <t>HICA-2493:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Analysis and DB queries preparation for</t>
+  </si>
+  <si>
+    <t> HICA-2773</t>
+  </si>
+  <si>
+    <t>Execution of HICA-2773</t>
+  </si>
+  <si>
+    <t>QA document preparation for HICA-2773</t>
+  </si>
+  <si>
+    <t>Testcase preparation for HICA-1636</t>
+  </si>
+  <si>
+    <t>Attended Sprint Review and Retrospective meeting</t>
+  </si>
+  <si>
+    <t>Attended Sprint planning meeting</t>
+  </si>
+  <si>
+    <t>Weekly Business meeting</t>
+  </si>
+  <si>
+    <t>Test Scenarios preparation for HICA-1636</t>
+  </si>
+  <si>
+    <t>HICA-1636:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Test Scenario Execution for HICA-1636</t>
+  </si>
+  <si>
+    <t>HICA-1636:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Test Scenarios preparation for HICA-2771</t>
+  </si>
+  <si>
+    <t>HICA- 2771:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Test Scenarios Execution for HICA-2771</t>
+  </si>
+  <si>
+    <t>HICA- 2771: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Performed Regression for Special Deal and view grant pages</t>
   </si>
   <si>
     <t>HICA-2886</t>
@@ -137,93 +477,48 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>Sibin</t>
-  </si>
-  <si>
     <t>Converted into story</t>
   </si>
   <si>
-    <t>Total Manual Execution</t>
-  </si>
-  <si>
     <t>Attended Sizzing session &amp; Backlog Refinement</t>
   </si>
   <si>
-    <t>Venkateswaran. Karuppian Ganesan</t>
-  </si>
-  <si>
-    <t>Attended Sizing and Backlog Refinement</t>
-  </si>
-  <si>
-    <t>Attend Spring Planning call</t>
-  </si>
-  <si>
-    <t>Total Automation Execution</t>
-  </si>
-  <si>
     <t>HICA-2810 Regression on Paying Entity</t>
   </si>
   <si>
     <t>Attend Weekly Call with Business</t>
   </si>
   <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
     <t>HICA-2802:Test Scenario Preparation</t>
   </si>
   <si>
     <t>Work on the tickets developed by the Dev team</t>
   </si>
   <si>
-    <t>Total Bugs</t>
-  </si>
-  <si>
     <t>HICA-2802: Test data preparation and connected with Oliva</t>
   </si>
   <si>
     <t>HICA-2802: Test Scenario Execution</t>
   </si>
   <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
-    <t>Manual Test Created</t>
-  </si>
-  <si>
     <t>HICA-2763: Test Scenario Preparation</t>
   </si>
   <si>
-    <t>Total Manual Case</t>
-  </si>
-  <si>
     <t>HICA-2763: Test Scenario Execution</t>
   </si>
   <si>
-    <t>Automation Scripts Created</t>
-  </si>
-  <si>
     <t>HICA-2763: Test cases Preparation</t>
   </si>
   <si>
     <t>HICA-2886:Test Scenario Preparation</t>
   </si>
   <si>
-    <t>Total Automation Scripts</t>
-  </si>
-  <si>
     <t>HICA-2763 Test cases review</t>
   </si>
   <si>
     <t>HICA-2886:Test Scenario Execution</t>
   </si>
   <si>
-    <t>Call with Venkat</t>
-  </si>
-  <si>
-    <t>Call with Sibin</t>
-  </si>
-  <si>
     <t>Attend Sprint Sizing and Backlog Refinement call</t>
   </si>
   <si>
@@ -233,21 +528,9 @@
     <t>Sprint Review and Retrospective</t>
   </si>
   <si>
-    <t>Sprint Review and Retrospective meeting</t>
-  </si>
-  <si>
-    <t>Work on the developed sprint items for Testing and Test scenarios</t>
-  </si>
-  <si>
-    <t>Yet to start</t>
-  </si>
-  <si>
     <t>Sprint Planning session</t>
   </si>
   <si>
-    <t>Sprint Planning meeting</t>
-  </si>
-  <si>
     <t>HICA-2763 -Testcases and Scenarios review</t>
   </si>
   <si>
@@ -287,9 +570,6 @@
     <t>call with Sibin</t>
   </si>
   <si>
-    <t>Call with Ayesha</t>
-  </si>
-  <si>
     <t>Weekly ICS Meeting</t>
   </si>
   <si>
@@ -302,9 +582,6 @@
     <t>COnverted to story</t>
   </si>
   <si>
-    <t>Attended Weekly call with Business</t>
-  </si>
-  <si>
     <t>Attended Weekly business meeting</t>
   </si>
   <si>
@@ -384,13 +661,162 @@
   </si>
   <si>
     <t>HICA-3001: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Attended Sizing and refinement meeting</t>
+  </si>
+  <si>
+    <r>
+      <t>Attended </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Sizing and Backlog Refinement meeting</t>
+    </r>
+  </si>
+  <si>
+    <t>Work on the developed sprint items for Testing and Test scenarios</t>
+  </si>
+  <si>
+    <t>Weekly Business call</t>
+  </si>
+  <si>
+    <t>HICA-3010 Test scenarios Preparation</t>
+  </si>
+  <si>
+    <t>Attended Weekly business meeting</t>
+  </si>
+  <si>
+    <t>HICA-3010 Test cases Preparation</t>
+  </si>
+  <si>
+    <t>      HICA-3010 Test Scenarios Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3010 Test cases Execution</t>
+  </si>
+  <si>
+    <t>            HICA-3010 Test cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3016 Test scenarios Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3016 Test Scenarios  Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3016 Test cases Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3016 Test cases Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3016 Test cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3016 Test cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3016: Test Scenarios Preparation</t>
+  </si>
+  <si>
+    <t>Call with James</t>
+  </si>
+  <si>
+    <t>Attended Sprint Review and Restrospective meeting</t>
+  </si>
+  <si>
+    <t>Attended Sprint Review &amp; Retrospective meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atteneded Sprint planning </t>
+  </si>
+  <si>
+    <t>HICA-3094 Test cases Execution</t>
+  </si>
+  <si>
+    <t>WSR preparation</t>
+  </si>
+  <si>
+    <t>QA document prepared for SDLC #26912</t>
+  </si>
+  <si>
+    <t>HICA-3034: Test cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3054 Test Scenarios  Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3074 Test Scenarios  Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3054 Test cases Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3074 Test cases Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3094 Test cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3074 Test cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3094: Test Scenarios Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3094: Test Cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3094 Test cases Preparation</t>
+  </si>
+  <si>
+    <t>Validated Ellen issue on transaction report</t>
+  </si>
+  <si>
+    <t>Attended Sizing and backlog Refinement</t>
+  </si>
+  <si>
+    <t>HICA-3054 Test cases Execution</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend Sprint </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>review and retrospective meeting</t>
+    </r>
+  </si>
+  <si>
+    <t>HICA-2677 Test cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3104 Test scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-3104 Test cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3111 Test scearios preparation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +928,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -523,7 +968,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -546,11 +991,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -621,6 +1190,85 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,11 +1559,5702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB56B5C0-F42E-401A-808B-3B98D8855F6E}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="4"/>
+    <col min="28" max="28" width="32" style="4" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27">
+        <v>2</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="58">
+        <v>29.5</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="27">
+        <v>3</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="58">
+        <v>3.5</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="30.75">
+      <c r="A4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="58">
+        <v>1</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="30.75">
+      <c r="A5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="27">
+        <v>13</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30.75">
+      <c r="A7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="27">
+        <v>8</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45.75">
+      <c r="A8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="33">
+        <v>45202</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
+      <c r="A11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C06682B-CCC8-4227-B649-E79E597C8C0E}">
+  <dimension ref="A1:AC12"/>
+  <sheetViews>
+    <sheetView topLeftCell="S3" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="42">
+        <v>1.85</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11">
+        <v>31.1</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="R2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="G3" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="24"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="43">
+        <v>2</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="43">
+        <v>4</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="43">
+        <v>7.5</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45.75">
+      <c r="A8" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="43">
+        <v>2</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="30.75">
+      <c r="A9" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="43">
+        <v>4</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="30.75">
+      <c r="A10" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="43">
+        <v>7</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
+      <c r="A11" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="43">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BD558A-02A2-49EB-B2FD-6ED6ADD77A05}">
+  <dimension ref="A1:AC17"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="33">
+      <c r="A2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="40">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11">
+        <v>34</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="R2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="G3" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="24"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="41">
+        <v>1</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="L4" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="52">
+        <v>45271</v>
+      </c>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="41">
+        <v>0.85</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="41">
+        <v>3</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="30.75">
+      <c r="A8" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="41">
+        <v>2</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="30.75">
+      <c r="A9" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="41">
+        <v>3</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="30.75">
+      <c r="A10" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="41">
+        <v>4</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
+      <c r="A11" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="41">
+        <v>2</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="50">
+        <v>45271</v>
+      </c>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="41">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="41">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D260808B-B798-41E6-9F28-E695E23C2420}">
+  <dimension ref="A1:AC8"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="42">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11">
+        <v>25</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="R2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="G3" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="43">
+        <v>7.65</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="43">
+        <v>14.5</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="G7" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327522CC-4B96-49E2-ABD8-E8F790DB38F2}">
+  <dimension ref="A1:AC8"/>
+  <sheetViews>
+    <sheetView topLeftCell="V5" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="42">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11">
+        <v>25</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="R2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="G3" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="43">
+        <v>7.65</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="43">
+        <v>14.5</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="G7" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73F7D88-B585-4E3C-95BF-2E151A5BB3AF}">
+  <dimension ref="A1:AC8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="R2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="41">
+        <v>5</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="G3" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="41">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8748CD-7F10-44D1-8E93-D799CB47B1BF}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="R3" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27">
+        <v>3</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="58">
+        <v>23.5</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="27">
+        <v>2</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="58">
+        <v>18.5</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="33">
+        <v>45179</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="45.75">
+      <c r="A6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="27">
+        <v>20</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="30.75">
+      <c r="A8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="27">
+        <v>5.5</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+    </row>
+    <row r="9" spans="1:29" ht="45.75">
+      <c r="A9" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="27">
+        <v>2</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="33">
+        <v>45179</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="27">
+        <v>2</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+    </row>
+    <row r="12" spans="1:29" ht="30.75">
+      <c r="A12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF5D862-FF0F-4358-B810-C7D9B96A86B1}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="W3" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27">
+        <v>3</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="58">
+        <v>23.5</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="27">
+        <v>6</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="58">
+        <v>2</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="58">
+        <v>17</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="27">
+        <v>3</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="45.75">
+      <c r="A6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="27">
+        <v>26</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CE0F83-7BD2-4302-9A0B-157BEE40A8C5}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27">
+        <v>3</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="58">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="57"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="27">
+        <v>4</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="58">
+        <v>27</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="33">
+        <v>45224</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="45.75">
+      <c r="A6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="33">
+        <v>45223</v>
+      </c>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="27">
+        <v>5</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="33">
+        <v>45223</v>
+      </c>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45.75">
+      <c r="A8" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="27">
+        <v>26.45</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+    </row>
+    <row r="9" spans="1:29" ht="45.75">
+      <c r="A9" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="53">
+        <v>2</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="33">
+        <v>45224</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
+      <c r="A11" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="27">
+        <v>6</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+    </row>
+    <row r="12" spans="1:29" ht="45.75">
+      <c r="A12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="27">
+        <v>1</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+    </row>
+    <row r="13" spans="1:29" ht="45.75">
+      <c r="A13" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="27">
+        <v>7</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="27">
+        <v>1</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="27">
+        <v>1</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F766BBD1-50F0-4EF2-A023-259EAA3DA348}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="W4" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="58">
+        <v>23.5</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="27">
+        <v>6</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="58">
+        <v>2</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="58">
+        <v>32</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="45.75">
+      <c r="A6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="27">
+        <v>18</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45.75">
+      <c r="A8" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+    </row>
+    <row r="9" spans="1:29" ht="45.75">
+      <c r="A9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="27">
+        <v>5</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" spans="1:29" ht="60.75">
+      <c r="A10" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="27">
+        <v>18</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z18"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -947,7 +7286,7 @@
     <col min="26" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1005,42 +7344,49 @@
       <c r="W1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="45.75">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="45.75">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>4.3</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="27">
+        <v>24</v>
+      </c>
+      <c r="E2" s="58">
         <v>32.15</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="26"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>27</v>
@@ -1049,105 +7395,119 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="26" t="s">
+      <c r="Q2" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="57"/>
+      <c r="W2" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="Z2" s="34">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="26">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="45.75">
+      <c r="AC2" s="34">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="27">
+        <v>34</v>
+      </c>
+      <c r="E3" s="58">
         <v>40.15</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="3" t="s">
+      <c r="Z3" s="34">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="45.75">
+      <c r="AC3" s="34">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1">
         <v>32</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>27</v>
@@ -1155,12 +7515,12 @@
       <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>27</v>
@@ -1169,37 +7529,44 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="45.75">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1">
         <v>1.5</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>27</v>
@@ -1207,49 +7574,56 @@
       <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="3" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="26">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="60.75">
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="60.75">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1">
         <v>0.5</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="26"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I6" s="5">
         <v>45236</v>
@@ -1257,43 +7631,50 @@
       <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="26">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="30.75">
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>27</v>
@@ -1301,43 +7682,46 @@
       <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7" s="26">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="45.75">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45.75">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="26"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>27</v>
@@ -1345,43 +7729,42 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="30.75">
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+    </row>
+    <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>27</v>
@@ -1389,43 +7772,42 @@
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="30.75">
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" spans="1:29" ht="30.75">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I10" s="5">
         <v>45266</v>
@@ -1433,210 +7815,231 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11" spans="1:26" ht="30.75">
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1">
         <v>9.5</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-    </row>
-    <row r="12" spans="1:26" ht="45.75">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+    </row>
+    <row r="12" spans="1:29" ht="45.75">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1">
         <v>3.5</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-    </row>
-    <row r="13" spans="1:26" ht="30.75">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+    </row>
+    <row r="13" spans="1:29" ht="30.75">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -1646,11 +8049,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
-  <dimension ref="A1:Z22"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1681,7 +8089,7 @@
     <col min="26" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1739,31 +8147,38 @@
       <c r="W1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="30.75">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="12">
         <v>3</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="11">
         <v>31.5</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>27</v>
@@ -1775,10 +8190,10 @@
         <v>27</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>27</v>
@@ -1789,33 +8204,40 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="30.75">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="12" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="B3" s="12">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="11">
         <v>40.200000000000003</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>27</v>
@@ -1827,10 +8249,10 @@
         <v>27</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>27</v>
@@ -1840,25 +8262,32 @@
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
-      <c r="Y3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="30.75">
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="12" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>27</v>
@@ -1869,134 +8298,146 @@
       <c r="K4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="45.75">
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="12" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="Y5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="45.75">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="12" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="Y6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="30.75">
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="Y7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="60.75">
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="60.75">
       <c r="A8" s="12" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="B8" s="12">
         <v>0.5</v>
       </c>
-      <c r="Y8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="30.75">
+    </row>
+    <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="12" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="B9" s="15">
         <v>3.5</v>
       </c>
-      <c r="Y9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="30.75">
+    </row>
+    <row r="10" spans="1:29" ht="30.75">
       <c r="A10" s="12" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="B10" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="45.75">
+    <row r="11" spans="1:29" ht="45.75">
       <c r="A11" s="12" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="B11" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="45.75">
+    <row r="12" spans="1:29" ht="45.75">
       <c r="A12" s="12" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="B12" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="45.75">
+    <row r="13" spans="1:29" ht="45.75">
       <c r="A13" s="12" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="B13" s="12">
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="45.75">
+    <row r="14" spans="1:29" ht="45.75">
       <c r="A14" s="12" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B14" s="12">
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="45.75">
+    <row r="15" spans="1:29" ht="45.75">
       <c r="A15" s="12" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="B15" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="45.75">
+    <row r="16" spans="1:29" ht="45.75">
       <c r="A16" s="12" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B16" s="12">
         <v>0.3</v>
@@ -2004,7 +8445,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="B17" s="12">
         <v>0.4</v>
@@ -2012,7 +8453,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
@@ -2020,7 +8461,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B19" s="12">
         <v>1</v>
@@ -2028,7 +8469,7 @@
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="12" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
@@ -2041,11 +8482,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
-  <dimension ref="A1:Z18"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0"/>
+    <sheetView topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2073,10 +8519,14 @@
     <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="26" max="26" width="12.85546875" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="10"/>
+    <col min="28" max="28" width="14.28515625" style="10" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2134,31 +8584,38 @@
       <c r="W1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="45.75">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="45.75">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="12">
         <v>3</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="11">
         <v>25.5</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>27</v>
@@ -2170,10 +8627,10 @@
         <v>27</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>27</v>
@@ -2183,90 +8640,104 @@
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="10" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="T2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="Z2" s="34">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="45.75">
+      <c r="AC2" s="34">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="12" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="B3" s="12">
         <v>2</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="11">
         <v>28</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="Z3" s="34">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="19"/>
-      <c r="Y3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="30.75">
+      <c r="AC3" s="34">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="12" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>27</v>
@@ -2278,37 +8749,44 @@
         <v>27</v>
       </c>
       <c r="L4" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="19"/>
-      <c r="Y4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="45.75">
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="12" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>27</v>
@@ -2319,25 +8797,32 @@
       <c r="K5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="30.75">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="12" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="B6" s="12">
         <v>19</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>27</v>
@@ -2348,25 +8833,32 @@
       <c r="K6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="45.75">
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="B7" s="12">
         <v>2</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>27</v>
@@ -2377,25 +8869,28 @@
       <c r="K7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="30.75">
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="30.75">
       <c r="A8" s="12" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="B8" s="12">
         <v>2</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>27</v>
@@ -2406,25 +8901,19 @@
       <c r="K8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="30.75">
+    </row>
+    <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="12" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="B9" s="12">
         <v>4</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>27</v>
@@ -2435,25 +8924,19 @@
       <c r="K9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="45.75">
+    </row>
+    <row r="10" spans="1:29" ht="45.75">
       <c r="A10" s="12" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>27</v>
@@ -2465,18 +8948,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="30.75">
+    <row r="11" spans="1:29" ht="30.75">
       <c r="A11" s="12" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="B11" s="12">
         <v>8</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I11" s="20">
         <v>45250</v>
@@ -2488,18 +8971,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="30.75">
+    <row r="12" spans="1:29" ht="30.75">
       <c r="A12" s="12" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="B12" s="12">
         <v>9</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>27</v>
@@ -2511,17 +8994,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:29">
       <c r="A13" s="12" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="B13" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:26"/>
-    <row r="15" spans="1:26"/>
-    <row r="16" spans="1:26"/>
+    <row r="14" spans="1:29"/>
+    <row r="15" spans="1:29"/>
+    <row r="16" spans="1:29"/>
     <row r="17"/>
     <row r="18"/>
   </sheetData>
@@ -2529,12 +9012,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
-  <dimension ref="A1:Z9"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q3" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="V5" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2566,7 +9052,7 @@
     <col min="26" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2624,39 +9110,46 @@
       <c r="W1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="30.75">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="12">
         <v>1.5</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="11">
         <v>19.5</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="L2" s="23" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>27</v>
@@ -2665,31 +9158,38 @@
         <v>27</v>
       </c>
       <c r="P2" s="24"/>
-      <c r="Y2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="60.75">
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="12" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="E3" s="11">
         <v>1.5</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>27</v>
@@ -2698,37 +9198,44 @@
         <v>27</v>
       </c>
       <c r="L3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="24"/>
-      <c r="Y3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="45.75">
+      <c r="AC3" s="34">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="12" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>27</v>
@@ -2737,35 +9244,42 @@
         <v>27</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N4" s="25"/>
       <c r="O4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="P4" s="24"/>
-      <c r="Y4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="45.75">
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="12" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>27</v>
@@ -2773,25 +9287,32 @@
       <c r="J5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="30.75">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="12" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>27</v>
@@ -2799,57 +9320,53 @@
       <c r="J6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="30.75">
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="B7" s="12">
         <v>6</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="12" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="B8" s="12">
         <v>0.5</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="Y9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2861,21 +9378,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -3046,8 +9548,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D113E50-46D0-45C1-80B7-88D5DB1FE105}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3055,5 +9572,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D113E50-46D0-45C1-80B7-88D5DB1FE105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}"/>
 </file>
--- a/dataSources/WSR/ICS.xlsx
+++ b/dataSources/WSR/ICS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="491" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0868E16-E669-43B1-A4E3-CDB3F9516D4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35AE20-26B1-4970-A6EF-13D7FAE71998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
@@ -816,7 +816,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,30 +1058,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1115,11 +1094,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1223,22 +1228,19 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1261,13 +1263,6 @@
     <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1278,6 +1273,24 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,40 +1582,40 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="4"/>
     <col min="28" max="28" width="32" style="4" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="4"/>
+    <col min="29" max="29" width="10.44140625" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1674,21 +1687,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>2</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="54">
         <v>29.5</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -1699,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="57"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="28" t="s">
         <v>28</v>
       </c>
@@ -1713,16 +1726,16 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="57" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -1737,21 +1750,21 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="27">
         <v>3</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="54">
         <v>3.5</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="31" t="s">
         <v>35</v>
       </c>
@@ -1762,7 +1775,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="57"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="28" t="s">
         <v>36</v>
       </c>
@@ -1776,14 +1789,14 @@
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -1798,21 +1811,21 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.75">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="54">
         <v>1</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="31" t="s">
         <v>41</v>
       </c>
@@ -1823,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="57"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="31" t="s">
         <v>42</v>
       </c>
@@ -1837,14 +1850,14 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -1859,17 +1872,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30.75">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="28" t="s">
         <v>47</v>
       </c>
@@ -1880,7 +1893,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="57"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1888,14 +1901,14 @@
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -1910,17 +1923,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="27">
         <v>13</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="31" t="s">
         <v>51</v>
       </c>
@@ -1931,20 +1944,20 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -1959,17 +1972,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.75">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="27">
         <v>8</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="31" t="s">
         <v>55</v>
       </c>
@@ -1980,20 +1993,20 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -2004,17 +2017,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="31" t="s">
         <v>58</v>
       </c>
@@ -2025,288 +2038,288 @@
         <v>45202</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="27">
         <v>1</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" spans="1:29" ht="30.75">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2321,36 +2334,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2422,11 +2435,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="41">
         <v>1.85</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -2435,28 +2448,28 @@
       <c r="E2" s="11">
         <v>31.1</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="45" t="s">
+      <c r="I2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="48" t="s">
+      <c r="N2" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="47" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="24"/>
@@ -2477,32 +2490,32 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="42">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="48" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="24"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
@@ -2518,21 +2531,21 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <v>1</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="25"/>
@@ -2554,23 +2567,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>2</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="48" t="s">
+      <c r="I5" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>27</v>
       </c>
       <c r="Y5" s="36" t="s">
@@ -2587,23 +2600,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="42">
         <v>4</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
@@ -2620,23 +2633,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <v>7.5</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="47" t="s">
         <v>27</v>
       </c>
       <c r="Y7" s="34"/>
@@ -2649,87 +2662,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="42">
         <v>2</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="30.75">
-      <c r="A9" s="41" t="s">
+      <c r="I8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="42">
         <v>4</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="30.75">
-      <c r="A10" s="41" t="s">
+      <c r="I9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="42">
         <v>7</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="30.75">
-      <c r="A11" s="41" t="s">
+      <c r="I10" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>0.5</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="41" t="s">
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="42">
         <v>0.25</v>
       </c>
     </row>
@@ -2746,37 +2759,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2848,11 +2861,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="39">
         <v>1.1499999999999999</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -2861,28 +2874,28 @@
       <c r="E2" s="11">
         <v>34</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="51" t="s">
+      <c r="I2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="46" t="s">
+      <c r="N2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="45" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="24"/>
@@ -2903,34 +2916,34 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="46" t="s">
+      <c r="I3" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="24"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
@@ -2946,28 +2959,28 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>1</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="L4" s="46" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="L4" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="51">
         <v>45271</v>
       </c>
       <c r="O4" s="24"/>
@@ -2986,23 +2999,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>0.85</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="48" t="s">
+      <c r="I5" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>27</v>
       </c>
       <c r="Y5" s="36" t="s">
@@ -3019,23 +3032,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>0.5</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
@@ -3052,23 +3065,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>3</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="47" t="s">
         <v>27</v>
       </c>
       <c r="Y7" s="34"/>
@@ -3081,129 +3094,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>2</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="30.75">
-      <c r="A9" s="44" t="s">
+      <c r="I8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>3</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="30.75">
-      <c r="A10" s="44" t="s">
+      <c r="I9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>4</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="30.75">
-      <c r="A11" s="44" t="s">
+      <c r="I10" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="40">
         <v>2</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="49">
         <v>45271</v>
       </c>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="44" t="s">
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="40">
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3220,36 +3233,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3321,11 +3334,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="41">
         <v>0.85</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -3372,11 +3385,11 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="42">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
@@ -3419,11 +3432,11 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <v>7.65</v>
       </c>
       <c r="G4" s="24" t="s">
@@ -3463,11 +3476,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>14.5</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -3496,11 +3509,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
@@ -3529,7 +3542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3552,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3569,36 +3582,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3670,11 +3683,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="41">
         <v>0.85</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -3721,11 +3734,11 @@
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="42">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
@@ -3768,11 +3781,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <v>7.65</v>
       </c>
       <c r="G4" s="24" t="s">
@@ -3812,11 +3825,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>14.5</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -3845,11 +3858,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
@@ -3878,7 +3891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3901,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3914,40 +3927,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73F7D88-B585-4E3C-95BF-2E151A5BB3AF}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4019,11 +4032,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="39">
         <v>0.5</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -4040,10 +4053,10 @@
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="52" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="24" t="s">
@@ -4070,11 +4083,11 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>5</v>
       </c>
       <c r="D3" s="21"/>
@@ -4090,10 +4103,10 @@
       <c r="J3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="52" t="s">
         <v>43</v>
       </c>
       <c r="N3" s="24" t="s">
@@ -4117,11 +4130,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>3.5</v>
       </c>
       <c r="G4" s="27" t="s">
@@ -4157,11 +4170,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>4.5</v>
       </c>
       <c r="G5" s="27" t="s">
@@ -4190,11 +4203,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>5</v>
       </c>
       <c r="G6" s="27" t="s">
@@ -4223,7 +4236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24"/>
@@ -4242,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -4262,36 +4275,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4363,21 +4376,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="54">
         <v>23.5</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -4388,7 +4401,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="57"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="28" t="s">
         <v>63</v>
       </c>
@@ -4402,16 +4415,16 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="57" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -4426,21 +4439,21 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="54">
         <v>18.5</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="28" t="s">
         <v>66</v>
       </c>
@@ -4451,7 +4464,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="57"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="28" t="s">
         <v>67</v>
       </c>
@@ -4465,14 +4478,14 @@
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -4487,17 +4500,17 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="27">
         <v>1.5</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="28" t="s">
         <v>47</v>
       </c>
@@ -4508,7 +4521,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="57"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="28" t="s">
         <v>36</v>
       </c>
@@ -4522,14 +4535,14 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -4544,17 +4557,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="31" t="s">
         <v>69</v>
       </c>
@@ -4565,7 +4578,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="57"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="31" t="s">
         <v>70</v>
       </c>
@@ -4579,14 +4592,14 @@
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -4601,17 +4614,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="31" t="s">
         <v>73</v>
       </c>
@@ -4622,7 +4635,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="57"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="31" t="s">
         <v>74</v>
       </c>
@@ -4632,16 +4645,16 @@
       <c r="N6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -4656,17 +4669,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="27">
         <v>20</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="31" t="s">
         <v>77</v>
       </c>
@@ -4677,20 +4690,20 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -4701,17 +4714,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="27">
         <v>5.5</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="31" t="s">
         <v>79</v>
       </c>
@@ -4722,37 +4735,37 @@
         <v>27</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="27">
         <v>0.5</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="31" t="s">
         <v>81</v>
       </c>
@@ -4763,37 +4776,37 @@
         <v>27</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="31" t="s">
         <v>83</v>
       </c>
@@ -4804,222 +4817,222 @@
         <v>45179</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="27">
         <v>2</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-    </row>
-    <row r="12" spans="1:29" ht="30.75">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+    </row>
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="27">
         <v>1.5</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5037,36 +5050,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5138,21 +5151,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="54">
         <v>23.5</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -5161,7 +5174,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="57"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="28" t="s">
         <v>28</v>
       </c>
@@ -5171,14 +5184,14 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="57"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -5193,21 +5206,21 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="27">
         <v>6</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="54">
         <v>2</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="31" t="s">
         <v>35</v>
       </c>
@@ -5216,7 +5229,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="57"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="28" t="s">
         <v>36</v>
       </c>
@@ -5226,14 +5239,14 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -5248,21 +5261,21 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="54">
         <v>17</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="31" t="s">
         <v>41</v>
       </c>
@@ -5271,7 +5284,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="57"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="28" t="s">
         <v>87</v>
       </c>
@@ -5281,14 +5294,14 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -5303,17 +5316,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="31" t="s">
         <v>89</v>
       </c>
@@ -5322,20 +5335,20 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="57"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -5350,17 +5363,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="31" t="s">
         <v>74</v>
       </c>
@@ -5369,20 +5382,20 @@
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -5397,35 +5410,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="27">
         <v>26</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -5436,291 +5449,291 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="27">
         <v>0.5</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5734,47 +5747,47 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U4" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="2" width="11.88671875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="57"/>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
@@ -5840,21 +5853,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="61">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="54">
         <v>36.450000000000003</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -5865,7 +5878,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="57"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="28" t="s">
         <v>63</v>
       </c>
@@ -5883,18 +5896,18 @@
       <c r="R2" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="T2" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="57" t="s">
+      <c r="U2" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="57"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="57"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -5909,21 +5922,21 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="61">
         <v>4</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="58">
-        <v>27</v>
-      </c>
-      <c r="F3" s="57"/>
+      <c r="E3" s="54">
+        <v>27</v>
+      </c>
+      <c r="F3" s="53"/>
       <c r="G3" s="28" t="s">
         <v>66</v>
       </c>
@@ -5934,7 +5947,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="57"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="28" t="s">
         <v>67</v>
       </c>
@@ -5946,14 +5959,14 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -5968,17 +5981,17 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:29" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="61">
         <v>2</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="28" t="s">
         <v>47</v>
       </c>
@@ -5989,7 +6002,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="57"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="28" t="s">
         <v>36</v>
       </c>
@@ -6001,14 +6014,14 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -6023,17 +6036,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="61">
         <v>1</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="31" t="s">
         <v>100</v>
       </c>
@@ -6044,7 +6057,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="57"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="31" t="s">
         <v>101</v>
       </c>
@@ -6056,14 +6069,14 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -6078,17 +6091,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="61">
         <v>1.5</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="31" t="s">
         <v>103</v>
       </c>
@@ -6099,7 +6112,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="57"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="31" t="s">
         <v>104</v>
       </c>
@@ -6109,16 +6122,16 @@
       <c r="N6" s="33">
         <v>45223</v>
       </c>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -6133,17 +6146,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="61">
         <v>5</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="31" t="s">
         <v>106</v>
       </c>
@@ -6154,7 +6167,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="57"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="31" t="s">
         <v>107</v>
       </c>
@@ -6164,16 +6177,16 @@
       <c r="N7" s="33">
         <v>45223</v>
       </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -6184,17 +6197,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="61">
         <v>26.45</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="31" t="s">
         <v>109</v>
       </c>
@@ -6205,37 +6218,37 @@
         <v>27</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
-      <c r="A9" s="39" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+    </row>
+    <row r="9" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="61">
         <v>2</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="31" t="s">
         <v>101</v>
       </c>
@@ -6246,275 +6259,277 @@
         <v>45224</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="26" t="s">
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
+      <c r="B10" s="61">
+        <v>0</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" spans="1:29" ht="30.75">
-      <c r="A11" s="26" t="s">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="61">
         <v>6</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-    </row>
-    <row r="12" spans="1:29" ht="45.75">
-      <c r="A12" s="26" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+    </row>
+    <row r="12" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="61">
         <v>1</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-    </row>
-    <row r="13" spans="1:29" ht="45.75">
-      <c r="A13" s="26" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+    </row>
+    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="61">
         <v>7</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="26" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+    </row>
+    <row r="14" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="61">
         <v>2.5</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="26" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+    </row>
+    <row r="15" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="61">
         <v>1</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="26" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+    </row>
+    <row r="16" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="61">
         <v>1</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:B10"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6531,37 +6546,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6633,21 +6648,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="54">
         <v>23.5</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -6656,7 +6671,7 @@
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="57"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="28" t="s">
         <v>28</v>
       </c>
@@ -6666,14 +6681,14 @@
       <c r="N2" s="29"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="57"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -6688,21 +6703,21 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="27">
         <v>6</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="54">
         <v>2</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="31" t="s">
         <v>35</v>
       </c>
@@ -6711,7 +6726,7 @@
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="57"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="28" t="s">
         <v>36</v>
       </c>
@@ -6721,14 +6736,14 @@
       <c r="N3" s="29"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -6743,21 +6758,21 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="54">
         <v>32</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="31" t="s">
         <v>41</v>
       </c>
@@ -6766,7 +6781,7 @@
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="57"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="28" t="s">
         <v>87</v>
       </c>
@@ -6776,14 +6791,14 @@
       <c r="N4" s="29"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -6798,17 +6813,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="31" t="s">
         <v>117</v>
       </c>
@@ -6817,20 +6832,20 @@
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="57"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="31"/>
       <c r="M5" s="29"/>
       <c r="N5" s="33"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -6845,17 +6860,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="27">
         <v>4.5</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="31" t="s">
         <v>119</v>
       </c>
@@ -6864,20 +6879,20 @@
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="57"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="31"/>
       <c r="M6" s="29"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -6892,17 +6907,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="27">
         <v>18</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="31" t="s">
         <v>121</v>
       </c>
@@ -6911,20 +6926,20 @@
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="57"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="31"/>
       <c r="M7" s="29"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -6935,17 +6950,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="31" t="s">
         <v>123</v>
       </c>
@@ -6954,37 +6969,37 @@
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="31" t="s">
         <v>125</v>
       </c>
@@ -6993,253 +7008,253 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" spans="1:29" ht="60.75">
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+    </row>
+    <row r="10" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="27">
         <v>18</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7257,36 +7272,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7358,21 +7373,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>4.3</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="54">
         <v>32.15</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7381,7 +7396,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="57"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="2" t="s">
         <v>63</v>
       </c>
@@ -7395,26 +7410,26 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="T2" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="U2" s="57" t="s">
+      <c r="U2" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="57"/>
-      <c r="W2" s="59" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="57"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -7429,21 +7444,21 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="54">
         <v>40.15</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="3" t="s">
         <v>66</v>
       </c>
@@ -7456,7 +7471,7 @@
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="3" t="s">
         <v>67</v>
       </c>
@@ -7470,14 +7485,14 @@
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -7492,17 +7507,17 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="1">
         <v>32</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="3" t="s">
         <v>133</v>
       </c>
@@ -7515,7 +7530,7 @@
       <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="3" t="s">
         <v>134</v>
       </c>
@@ -7529,14 +7544,14 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -7551,17 +7566,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="1">
         <v>1.5</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="3" t="s">
         <v>135</v>
       </c>
@@ -7574,7 +7589,7 @@
       <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="3" t="s">
         <v>136</v>
       </c>
@@ -7586,14 +7601,14 @@
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -7608,17 +7623,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="60.75">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="1">
         <v>0.5</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="3" t="s">
         <v>138</v>
       </c>
@@ -7631,20 +7646,20 @@
       <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -7659,17 +7674,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="3" t="s">
         <v>139</v>
       </c>
@@ -7682,20 +7697,20 @@
       <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -7706,17 +7721,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="3" t="s">
         <v>140</v>
       </c>
@@ -7729,37 +7744,37 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-    </row>
-    <row r="9" spans="1:29" ht="30.75">
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="3" t="s">
         <v>142</v>
       </c>
@@ -7772,37 +7787,37 @@
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" spans="1:29" ht="30.75">
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="3" t="s">
         <v>144</v>
       </c>
@@ -7815,234 +7830,234 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" spans="1:29" ht="30.75">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B11" s="1">
         <v>9.5</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-    </row>
-    <row r="12" spans="1:29" ht="45.75">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+    </row>
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="1">
         <v>3.5</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-    </row>
-    <row r="13" spans="1:29" ht="30.75">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+    </row>
+    <row r="13" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8060,36 +8075,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8161,7 +8176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -8220,7 +8235,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>147</v>
       </c>
@@ -8276,7 +8291,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>148</v>
       </c>
@@ -8312,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>149</v>
       </c>
@@ -8333,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>150</v>
       </c>
@@ -8354,7 +8369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>151</v>
       </c>
@@ -8371,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="60.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>152</v>
       </c>
@@ -8379,7 +8394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="30.75">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>153</v>
       </c>
@@ -8387,7 +8402,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="30.75">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>154</v>
       </c>
@@ -8395,7 +8410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45.75">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>155</v>
       </c>
@@ -8403,7 +8418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45.75">
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>156</v>
       </c>
@@ -8411,7 +8426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="45.75">
+    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>157</v>
       </c>
@@ -8419,7 +8434,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45.75">
+    <row r="14" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>158</v>
       </c>
@@ -8427,7 +8442,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="45.75">
+    <row r="15" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>159</v>
       </c>
@@ -8435,7 +8450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45.75">
+    <row r="16" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>160</v>
       </c>
@@ -8443,7 +8458,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>161</v>
       </c>
@@ -8451,7 +8466,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>84</v>
       </c>
@@ -8459,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -8467,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30.75">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>162</v>
       </c>
@@ -8475,8 +8490,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2"/>
-    <row r="22" spans="1:2"/>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8493,40 +8508,40 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="10" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="10"/>
-    <col min="28" max="28" width="14.28515625" style="10" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" style="10" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.88671875" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="10"/>
+    <col min="28" max="28" width="14.33203125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="12.88671875" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8598,7 +8613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -8671,7 +8686,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>132</v>
       </c>
@@ -8726,7 +8741,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>46</v>
       </c>
@@ -8775,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>167</v>
       </c>
@@ -8811,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
@@ -8847,7 +8862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>170</v>
       </c>
@@ -8879,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>172</v>
       </c>
@@ -8902,7 +8917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="30.75">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>174</v>
       </c>
@@ -8925,7 +8940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45.75">
+    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>176</v>
       </c>
@@ -8948,7 +8963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="30.75">
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>178</v>
       </c>
@@ -8971,7 +8986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="30.75">
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>180</v>
       </c>
@@ -8994,7 +9009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>161</v>
       </c>
@@ -9002,11 +9017,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9019,40 +9034,40 @@
   </sheetPr>
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView topLeftCell="V5" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9124,7 +9139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -9172,7 +9187,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>182</v>
       </c>
@@ -9224,7 +9239,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>185</v>
       </c>
@@ -9268,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>187</v>
       </c>
@@ -9301,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>189</v>
       </c>
@@ -9334,7 +9349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>191</v>
       </c>
@@ -9361,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>161</v>
       </c>
@@ -9378,6 +9393,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -9548,15 +9572,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9564,13 +9579,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D113E50-46D0-45C1-80B7-88D5DB1FE105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D113E50-46D0-45C1-80B7-88D5DB1FE105}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/ICS.xlsx
+++ b/dataSources/WSR/ICS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35AE20-26B1-4970-A6EF-13D7FAE71998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6A4AF97-E5C4-4D4F-A09E-EC4B570C4C74}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="18 Dec 2023" sheetId="12" r:id="rId12"/>
     <sheet name="26 Dec 2023" sheetId="15" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="16" r:id="rId14"/>
+    <sheet name="8 Jan 2024" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="244">
   <si>
     <t>Task Name</t>
   </si>
@@ -811,15 +812,50 @@
   <si>
     <t>HICA-3111 Test scearios preparation</t>
   </si>
+  <si>
+    <r>
+      <t>Attend S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t>izing and backlog refinement</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint Review &amp; Retrospective meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sprint planning meeting</t>
+  </si>
+  <si>
+    <t>Sprint planning meeting</t>
+  </si>
+  <si>
+    <t>Weekly Business meeting</t>
+  </si>
+  <si>
+    <t>HICA-3088 execution</t>
+  </si>
+  <si>
+    <t>HICA-1647 Test scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-1647 Test cases preparation</t>
+  </si>
+  <si>
+    <t>Executed modification grants tocheck which modification goes to verification queue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,6 +1094,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1091,32 +1151,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,19 +1262,22 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1266,6 +1303,17 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1273,24 +1321,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1582,40 +1612,40 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="4"/>
     <col min="28" max="28" width="32" style="4" customWidth="1"/>
-    <col min="29" max="29" width="10.44140625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="4"/>
+    <col min="29" max="29" width="10.42578125" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1687,21 +1717,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>2</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="60">
         <v>29.5</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1742,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="53"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="28" t="s">
         <v>28</v>
       </c>
@@ -1726,16 +1756,16 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="53" t="s">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="53"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -1750,21 +1780,21 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="27">
         <v>3</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="60">
         <v>3.5</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="31" t="s">
         <v>35</v>
       </c>
@@ -1775,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="53"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="28" t="s">
         <v>36</v>
       </c>
@@ -1789,14 +1819,14 @@
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -1811,21 +1841,21 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="30.75">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="60">
         <v>1</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="31" t="s">
         <v>41</v>
       </c>
@@ -1836,7 +1866,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="53"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="31" t="s">
         <v>42</v>
       </c>
@@ -1850,14 +1880,14 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -1872,17 +1902,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="30.75">
       <c r="A5" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="28" t="s">
         <v>47</v>
       </c>
@@ -1893,7 +1923,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="53"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1901,14 +1931,14 @@
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -1923,17 +1953,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="27">
         <v>13</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="31" t="s">
         <v>51</v>
       </c>
@@ -1944,20 +1974,20 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -1972,17 +2002,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="30.75">
       <c r="A7" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="27">
         <v>8</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="31" t="s">
         <v>55</v>
       </c>
@@ -1993,20 +2023,20 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -2017,17 +2047,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="45.75">
       <c r="A8" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="31" t="s">
         <v>58</v>
       </c>
@@ -2038,288 +2068,288 @@
         <v>45202</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-    </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="27">
         <v>1</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-    </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-    </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
       <c r="A11" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-    </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-    </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-    </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,36 +2364,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2435,11 +2465,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <v>1.85</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -2448,28 +2478,28 @@
       <c r="E2" s="11">
         <v>31.1</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="44" t="s">
+      <c r="H2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="47" t="s">
+      <c r="N2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="48" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="24"/>
@@ -2490,32 +2520,32 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="47" t="s">
+      <c r="H3" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="24"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
@@ -2531,21 +2561,21 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="H4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="25"/>
@@ -2567,23 +2597,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="43">
         <v>2</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="47" t="s">
+      <c r="H5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="48" t="s">
         <v>27</v>
       </c>
       <c r="Y5" s="36" t="s">
@@ -2600,23 +2630,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="43">
         <v>4</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="47" t="s">
+      <c r="H6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="48" t="s">
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
@@ -2633,23 +2663,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <v>7.5</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="47" t="s">
+      <c r="H7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="48" t="s">
         <v>27</v>
       </c>
       <c r="Y7" s="34"/>
@@ -2662,87 +2692,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:29" ht="45.75">
+      <c r="A8" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="43">
         <v>2</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="H8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="30.75">
+      <c r="A9" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="43">
         <v>4</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="H9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="30.75">
+      <c r="A10" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="43">
         <v>7</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="H10" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
+      <c r="A11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="43">
         <v>0.5</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="H11" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="43">
         <v>0.25</v>
       </c>
     </row>
@@ -2759,37 +2789,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2861,11 +2891,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:29" ht="33">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <v>1.1499999999999999</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -2874,28 +2904,28 @@
       <c r="E2" s="11">
         <v>34</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="50" t="s">
+      <c r="H2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="45" t="s">
+      <c r="N2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="46" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="24"/>
@@ -2916,34 +2946,34 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="41">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="45" t="s">
+      <c r="H3" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="24"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
@@ -2959,28 +2989,28 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>1</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="L4" s="45" t="s">
+      <c r="H4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="L4" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="52">
         <v>45271</v>
       </c>
       <c r="O4" s="24"/>
@@ -2999,23 +3029,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="41">
         <v>0.85</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="47" t="s">
+      <c r="H5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="48" t="s">
         <v>27</v>
       </c>
       <c r="Y5" s="36" t="s">
@@ -3032,23 +3062,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="41">
         <v>0.5</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="47" t="s">
+      <c r="H6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="48" t="s">
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
@@ -3065,23 +3095,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <v>3</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="47" t="s">
+      <c r="H7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="48" t="s">
         <v>27</v>
       </c>
       <c r="Y7" s="34"/>
@@ -3094,129 +3124,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:29" ht="30.75">
+      <c r="A8" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="41">
         <v>2</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="H8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="30.75">
+      <c r="A9" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="41">
         <v>3</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="H9" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="H9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="30.75">
+      <c r="A10" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="41">
         <v>4</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="H10" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+      <c r="H10" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
+      <c r="A11" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="41">
         <v>2</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="50">
         <v>45271</v>
       </c>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="41">
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:29">
+      <c r="A13" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:29">
+      <c r="A14" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:29">
+      <c r="A15" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:29">
+      <c r="A16" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="41">
         <v>1</v>
       </c>
     </row>
@@ -3233,36 +3263,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3334,11 +3364,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <v>0.85</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -3385,11 +3415,11 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
@@ -3432,11 +3462,11 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="43">
         <v>7.65</v>
       </c>
       <c r="G4" s="24" t="s">
@@ -3476,11 +3506,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="43">
         <v>14.5</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -3509,11 +3539,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="43">
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
@@ -3542,7 +3572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3565,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3582,36 +3612,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3683,11 +3713,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <v>0.85</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -3734,11 +3764,11 @@
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
@@ -3781,11 +3811,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="43">
         <v>7.65</v>
       </c>
       <c r="G4" s="24" t="s">
@@ -3825,11 +3855,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="43">
         <v>14.5</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -3858,11 +3888,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="43">
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
@@ -3891,7 +3921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3914,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3931,36 +3961,36 @@
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4032,11 +4062,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <v>0.5</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -4053,10 +4083,10 @@
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="53" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="24" t="s">
@@ -4083,11 +4113,11 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="41">
         <v>5</v>
       </c>
       <c r="D3" s="21"/>
@@ -4103,10 +4133,10 @@
       <c r="J3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="53" t="s">
         <v>43</v>
       </c>
       <c r="N3" s="24" t="s">
@@ -4130,11 +4160,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>3.5</v>
       </c>
       <c r="G4" s="27" t="s">
@@ -4170,11 +4200,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="41">
         <v>4.5</v>
       </c>
       <c r="G5" s="27" t="s">
@@ -4203,11 +4233,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="41">
         <v>5</v>
       </c>
       <c r="G6" s="27" t="s">
@@ -4236,7 +4266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24"/>
@@ -4255,9 +4285,398 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C53DED1-CA0E-466B-88CE-A15B7B000C07}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="33">
+      <c r="A2" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="42">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="R2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="43">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="G3" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="46"/>
+      <c r="P3" s="24"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" s="24"/>
+      <c r="Y4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="42">
+        <v>1</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="43">
+        <v>12.5</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="30.75">
+      <c r="A8" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="43">
+        <v>3.5</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="50">
+        <v>45300</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="106.5">
+      <c r="A9" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="43">
+        <v>3</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4275,36 +4694,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4376,21 +4795,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="60">
         <v>23.5</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -4401,7 +4820,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="53"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="28" t="s">
         <v>63</v>
       </c>
@@ -4415,16 +4834,16 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="53" t="s">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="53"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -4439,21 +4858,21 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="60">
         <v>18.5</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="28" t="s">
         <v>66</v>
       </c>
@@ -4464,7 +4883,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="53"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="28" t="s">
         <v>67</v>
       </c>
@@ -4478,14 +4897,14 @@
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -4500,17 +4919,17 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="27">
         <v>1.5</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="28" t="s">
         <v>47</v>
       </c>
@@ -4521,7 +4940,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="53"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="28" t="s">
         <v>36</v>
       </c>
@@ -4535,14 +4954,14 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -4557,17 +4976,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="31" t="s">
         <v>69</v>
       </c>
@@ -4578,7 +4997,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="53"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="31" t="s">
         <v>70</v>
       </c>
@@ -4592,14 +5011,14 @@
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -4614,17 +5033,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="31" t="s">
         <v>73</v>
       </c>
@@ -4635,7 +5054,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="53"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="31" t="s">
         <v>74</v>
       </c>
@@ -4645,16 +5064,16 @@
       <c r="N6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -4669,17 +5088,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="27">
         <v>20</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="31" t="s">
         <v>77</v>
       </c>
@@ -4690,20 +5109,20 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -4714,17 +5133,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="30.75">
       <c r="A8" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="27">
         <v>5.5</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="31" t="s">
         <v>79</v>
       </c>
@@ -4735,37 +5154,37 @@
         <v>27</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-    </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+    </row>
+    <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="27">
         <v>0.5</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="31" t="s">
         <v>81</v>
       </c>
@@ -4776,37 +5195,37 @@
         <v>27</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-    </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="31" t="s">
         <v>83</v>
       </c>
@@ -4817,222 +5236,222 @@
         <v>45179</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-    </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="26" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="27">
         <v>2</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-    </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+    </row>
+    <row r="12" spans="1:29" ht="30.75">
       <c r="A12" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="27">
         <v>1.5</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-    </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-    </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5050,36 +5469,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5151,21 +5570,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="60">
         <v>23.5</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -5174,7 +5593,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="53"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="28" t="s">
         <v>28</v>
       </c>
@@ -5184,14 +5603,14 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="53"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -5206,21 +5625,21 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="27">
         <v>6</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="60">
         <v>2</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="31" t="s">
         <v>35</v>
       </c>
@@ -5229,7 +5648,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="53"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="28" t="s">
         <v>36</v>
       </c>
@@ -5239,14 +5658,14 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -5261,21 +5680,21 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="60">
         <v>17</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="31" t="s">
         <v>41</v>
       </c>
@@ -5284,7 +5703,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="53"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="28" t="s">
         <v>87</v>
       </c>
@@ -5294,14 +5713,14 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -5316,17 +5735,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="31" t="s">
         <v>89</v>
       </c>
@@ -5335,20 +5754,20 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="53"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -5363,17 +5782,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="31" t="s">
         <v>74</v>
       </c>
@@ -5382,20 +5801,20 @@
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -5410,35 +5829,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="27">
         <v>26</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -5449,291 +5868,291 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="27">
         <v>0.5</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-    </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-    </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-    </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-    </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-    </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-    </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5747,47 +6166,47 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.88671875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60" t="s">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
@@ -5853,21 +6272,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="60">
         <v>36.450000000000003</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -5878,7 +6297,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="53"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="28" t="s">
         <v>63</v>
       </c>
@@ -5896,18 +6315,18 @@
       <c r="R2" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="53"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -5922,21 +6341,21 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="27">
         <v>4</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="54">
-        <v>27</v>
-      </c>
-      <c r="F3" s="53"/>
+      <c r="E3" s="60">
+        <v>27</v>
+      </c>
+      <c r="F3" s="59"/>
       <c r="G3" s="28" t="s">
         <v>66</v>
       </c>
@@ -5947,7 +6366,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="53"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="28" t="s">
         <v>67</v>
       </c>
@@ -5959,14 +6378,14 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -5981,17 +6400,17 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="28" t="s">
         <v>47</v>
       </c>
@@ -6002,7 +6421,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="53"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="28" t="s">
         <v>36</v>
       </c>
@@ -6014,14 +6433,14 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -6036,17 +6455,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="31" t="s">
         <v>100</v>
       </c>
@@ -6057,7 +6476,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="53"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="31" t="s">
         <v>101</v>
       </c>
@@ -6069,14 +6488,14 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -6091,17 +6510,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:29" ht="45.75">
+      <c r="A6" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="27">
         <v>1.5</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="31" t="s">
         <v>103</v>
       </c>
@@ -6112,7 +6531,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="53"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="31" t="s">
         <v>104</v>
       </c>
@@ -6122,16 +6541,16 @@
       <c r="N6" s="33">
         <v>45223</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -6146,17 +6565,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="31" t="s">
         <v>106</v>
       </c>
@@ -6167,7 +6586,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="53"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="31" t="s">
         <v>107</v>
       </c>
@@ -6177,16 +6596,16 @@
       <c r="N7" s="33">
         <v>45223</v>
       </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -6197,17 +6616,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:29" ht="45.75">
+      <c r="A8" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="27">
         <v>26.45</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="31" t="s">
         <v>109</v>
       </c>
@@ -6218,37 +6637,37 @@
         <v>27</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-    </row>
-    <row r="9" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61" t="s">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+    </row>
+    <row r="9" spans="1:29" ht="45.75">
+      <c r="A9" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="54">
         <v>2</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="31" t="s">
         <v>101</v>
       </c>
@@ -6259,277 +6678,275 @@
         <v>45224</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-    </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="61">
-        <v>0</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-    </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
+      <c r="A11" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="27">
         <v>6</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-    </row>
-    <row r="12" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+    </row>
+    <row r="12" spans="1:29" ht="45.75">
+      <c r="A12" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="27">
         <v>1</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-    </row>
-    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+    </row>
+    <row r="13" spans="1:29" ht="45.75">
+      <c r="A13" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="27">
         <v>7</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-    </row>
-    <row r="14" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="27">
         <v>2.5</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-    </row>
-    <row r="15" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="27">
         <v>1</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-    </row>
-    <row r="16" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="27">
         <v>1</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-    </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-    </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6546,37 +6963,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6648,21 +7065,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>1</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="60">
         <v>23.5</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -6671,7 +7088,7 @@
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="53"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="28" t="s">
         <v>28</v>
       </c>
@@ -6681,14 +7098,14 @@
       <c r="N2" s="29"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="53"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -6703,21 +7120,21 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="26" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="27">
         <v>6</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="60">
         <v>2</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="31" t="s">
         <v>35</v>
       </c>
@@ -6726,7 +7143,7 @@
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="53"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="28" t="s">
         <v>36</v>
       </c>
@@ -6736,14 +7153,14 @@
       <c r="N3" s="29"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -6758,21 +7175,21 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="26" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="60">
         <v>32</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="31" t="s">
         <v>41</v>
       </c>
@@ -6781,7 +7198,7 @@
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="53"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="28" t="s">
         <v>87</v>
       </c>
@@ -6791,14 +7208,14 @@
       <c r="N4" s="29"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -6813,17 +7230,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="26" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="31" t="s">
         <v>117</v>
       </c>
@@ -6832,20 +7249,20 @@
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="53"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="31"/>
       <c r="M5" s="29"/>
       <c r="N5" s="33"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -6860,17 +7277,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="26" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="27">
         <v>4.5</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="31" t="s">
         <v>119</v>
       </c>
@@ -6879,20 +7296,20 @@
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="53"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="31"/>
       <c r="M6" s="29"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -6907,17 +7324,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="27">
         <v>18</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="31" t="s">
         <v>121</v>
       </c>
@@ -6926,20 +7343,20 @@
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="53"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="31"/>
       <c r="M7" s="29"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -6950,17 +7367,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="45.75">
       <c r="A8" s="26" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="31" t="s">
         <v>123</v>
       </c>
@@ -6969,37 +7386,37 @@
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-    </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+    </row>
+    <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="31" t="s">
         <v>125</v>
       </c>
@@ -7008,253 +7425,253 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-    </row>
-    <row r="10" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+    </row>
+    <row r="10" spans="1:29" ht="60.75">
       <c r="A10" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="27">
         <v>18</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-    </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-    </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-    </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-    </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7272,36 +7689,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="4"/>
+    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="4"/>
+    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="4"/>
+    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7373,21 +7790,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="45.75">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>4.3</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="60">
         <v>32.15</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7396,7 +7813,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="53"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="2" t="s">
         <v>63</v>
       </c>
@@ -7410,26 +7827,26 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="55" t="s">
+      <c r="V2" s="59"/>
+      <c r="W2" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="53"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -7444,21 +7861,21 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="60">
         <v>40.15</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="3" t="s">
         <v>66</v>
       </c>
@@ -7471,7 +7888,7 @@
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="3" t="s">
         <v>67</v>
       </c>
@@ -7485,14 +7902,14 @@
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -7507,17 +7924,17 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="1">
         <v>32</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="3" t="s">
         <v>133</v>
       </c>
@@ -7530,7 +7947,7 @@
       <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="53"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="3" t="s">
         <v>134</v>
       </c>
@@ -7544,14 +7961,14 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
       <c r="Y4" s="36" t="s">
         <v>44</v>
       </c>
@@ -7566,17 +7983,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="1">
         <v>1.5</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="3" t="s">
         <v>135</v>
       </c>
@@ -7589,7 +8006,7 @@
       <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="53"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="3" t="s">
         <v>136</v>
       </c>
@@ -7601,14 +8018,14 @@
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -7623,17 +8040,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="60.75">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="1">
         <v>0.5</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="3" t="s">
         <v>138</v>
       </c>
@@ -7646,20 +8063,20 @@
       <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
       <c r="Y6" s="36" t="s">
         <v>52</v>
       </c>
@@ -7674,17 +8091,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="3" t="s">
         <v>139</v>
       </c>
@@ -7697,20 +8114,20 @@
       <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -7721,17 +8138,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="45.75">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="3" t="s">
         <v>140</v>
       </c>
@@ -7744,37 +8161,37 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-    </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+    </row>
+    <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="3" t="s">
         <v>142</v>
       </c>
@@ -7787,37 +8204,37 @@
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-    </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+    </row>
+    <row r="10" spans="1:29" ht="30.75">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="3" t="s">
         <v>144</v>
       </c>
@@ -7830,234 +8247,234 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-    </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B11" s="1">
         <v>9.5</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-    </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+    </row>
+    <row r="12" spans="1:29" ht="45.75">
       <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="1">
         <v>3.5</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-    </row>
-    <row r="13" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+    </row>
+    <row r="13" spans="1:29" ht="30.75">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-    </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-    </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8075,36 +8492,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8176,7 +8593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -8235,7 +8652,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="12" t="s">
         <v>147</v>
       </c>
@@ -8291,7 +8708,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="12" t="s">
         <v>148</v>
       </c>
@@ -8327,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="12" t="s">
         <v>149</v>
       </c>
@@ -8348,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="12" t="s">
         <v>150</v>
       </c>
@@ -8369,7 +8786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12" t="s">
         <v>151</v>
       </c>
@@ -8386,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="60.75">
       <c r="A8" s="12" t="s">
         <v>152</v>
       </c>
@@ -8394,7 +8811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="12" t="s">
         <v>153</v>
       </c>
@@ -8402,7 +8819,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="30.75">
       <c r="A10" s="12" t="s">
         <v>154</v>
       </c>
@@ -8410,7 +8827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="45.75">
       <c r="A11" s="12" t="s">
         <v>155</v>
       </c>
@@ -8418,7 +8835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="45.75">
       <c r="A12" s="12" t="s">
         <v>156</v>
       </c>
@@ -8426,7 +8843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="45.75">
       <c r="A13" s="12" t="s">
         <v>157</v>
       </c>
@@ -8434,7 +8851,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="45.75">
       <c r="A14" s="12" t="s">
         <v>158</v>
       </c>
@@ -8442,7 +8859,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="45.75">
       <c r="A15" s="12" t="s">
         <v>159</v>
       </c>
@@ -8450,7 +8867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="45.75">
       <c r="A16" s="12" t="s">
         <v>160</v>
       </c>
@@ -8458,7 +8875,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
         <v>161</v>
       </c>
@@ -8466,7 +8883,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
         <v>84</v>
       </c>
@@ -8474,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -8482,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="12" t="s">
         <v>162</v>
       </c>
@@ -8490,8 +8907,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:2"/>
+    <row r="22" spans="1:2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8508,40 +8925,40 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.88671875" style="10" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="10"/>
-    <col min="28" max="28" width="14.33203125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="12.88671875" style="10" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="10"/>
+    <col min="28" max="28" width="14.28515625" style="10" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8613,7 +9030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="45.75">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -8686,7 +9103,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="12" t="s">
         <v>132</v>
       </c>
@@ -8741,7 +9158,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="12" t="s">
         <v>46</v>
       </c>
@@ -8790,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="12" t="s">
         <v>167</v>
       </c>
@@ -8826,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
@@ -8862,7 +9279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12" t="s">
         <v>170</v>
       </c>
@@ -8894,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="30.75">
       <c r="A8" s="12" t="s">
         <v>172</v>
       </c>
@@ -8917,7 +9334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="12" t="s">
         <v>174</v>
       </c>
@@ -8940,7 +9357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="45.75">
       <c r="A10" s="12" t="s">
         <v>176</v>
       </c>
@@ -8963,7 +9380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="30.75">
       <c r="A11" s="12" t="s">
         <v>178</v>
       </c>
@@ -8986,7 +9403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="30.75">
       <c r="A12" s="12" t="s">
         <v>180</v>
       </c>
@@ -9009,7 +9426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29">
       <c r="A13" s="12" t="s">
         <v>161</v>
       </c>
@@ -9017,11 +9434,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29"/>
+    <row r="15" spans="1:29"/>
+    <row r="16" spans="1:29"/>
+    <row r="17"/>
+    <row r="18"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9034,40 +9451,40 @@
   </sheetPr>
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="V5" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9139,7 +9556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="30.75">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -9187,7 +9604,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="12" t="s">
         <v>182</v>
       </c>
@@ -9239,7 +9656,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="12" t="s">
         <v>185</v>
       </c>
@@ -9283,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="12" t="s">
         <v>187</v>
       </c>
@@ -9316,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="12" t="s">
         <v>189</v>
       </c>
@@ -9349,7 +9766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12" t="s">
         <v>191</v>
       </c>
@@ -9376,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="12" t="s">
         <v>161</v>
       </c>
@@ -9579,37 +9996,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D113E50-46D0-45C1-80B7-88D5DB1FE105}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
-    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D113E50-46D0-45C1-80B7-88D5DB1FE105}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}"/>
 </file>
--- a/dataSources/WSR/ICS.xlsx
+++ b/dataSources/WSR/ICS.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="510" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6A4AF97-E5C4-4D4F-A09E-EC4B570C4C74}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E1932FE-5F08-48F9-95E9-E404D11BE388}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
-    <sheet name="9 Oct 2023" sheetId="10" r:id="rId2"/>
-    <sheet name="16 Oct 2023" sheetId="9" r:id="rId3"/>
-    <sheet name="23 Oct 2023" sheetId="7" r:id="rId4"/>
-    <sheet name="30 Oct 2023" sheetId="8" r:id="rId5"/>
-    <sheet name="6 Nov 2023" sheetId="1" r:id="rId6"/>
-    <sheet name="13 Nov 2023" sheetId="2" r:id="rId7"/>
-    <sheet name="20 Nov 2023" sheetId="5" r:id="rId8"/>
-    <sheet name="27 Nov 2023" sheetId="6" r:id="rId9"/>
-    <sheet name="4 Dec 2023" sheetId="14" r:id="rId10"/>
-    <sheet name="11 Dec 2023" sheetId="13" r:id="rId11"/>
-    <sheet name="18 Dec 2023" sheetId="12" r:id="rId12"/>
-    <sheet name="26 Dec 2023" sheetId="15" r:id="rId13"/>
-    <sheet name="2 Jan 2024" sheetId="16" r:id="rId14"/>
-    <sheet name="8 Jan 2024" sheetId="17" r:id="rId15"/>
+    <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
+    <sheet name="9 Oct 2023" sheetId="9" r:id="rId2"/>
+    <sheet name="16 Oct 2023" sheetId="7" r:id="rId3"/>
+    <sheet name="23 Oct 2023" sheetId="8" r:id="rId4"/>
+    <sheet name="30 Oct 2023" sheetId="1" r:id="rId5"/>
+    <sheet name="6 Nov 2023" sheetId="2" r:id="rId6"/>
+    <sheet name="13 Nov 2023" sheetId="5" r:id="rId7"/>
+    <sheet name="20 Nov 2023" sheetId="6" r:id="rId8"/>
+    <sheet name="27 Nov 2023" sheetId="14" r:id="rId9"/>
+    <sheet name="4 Dec 2023" sheetId="13" r:id="rId10"/>
+    <sheet name="11 Dec 2023" sheetId="12" r:id="rId11"/>
+    <sheet name="18 Dec 2023" sheetId="15" r:id="rId12"/>
+    <sheet name="26 Dec 2023" sheetId="16" r:id="rId13"/>
+    <sheet name="2 Jan 2024" sheetId="17" r:id="rId14"/>
+    <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="238">
   <si>
     <t>Task Name</t>
   </si>
@@ -134,6 +134,151 @@
   </si>
   <si>
     <t> </t>
+  </si>
+  <si>
+    <t>Attend Sprint Review and Retrospective Meeting</t>
+  </si>
+  <si>
+    <t>Yet to attend</t>
+  </si>
+  <si>
+    <t>No defect logged for the week</t>
+  </si>
+  <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
+    <t>Attended Sizing and Backlog Refinement meeting</t>
+  </si>
+  <si>
+    <t>Venkateswaran. Karuppian Ganesan</t>
+  </si>
+  <si>
+    <t>Attended Sizing and Backlog Refinement</t>
+  </si>
+  <si>
+    <t>Attend Spring Planning call</t>
+  </si>
+  <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
+    <t>Attended Weekly call with Business</t>
+  </si>
+  <si>
+    <r>
+      <t>Attended Weekly call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> with Business</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Attend Weekly Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> with Business</t>
+    </r>
+  </si>
+  <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
+  </si>
+  <si>
+    <t>Test  Scenario Preparation of HICA-2596</t>
+  </si>
+  <si>
+    <t>HICA-2596:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>HICA-1909:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Yet to Start</t>
+  </si>
+  <si>
+    <t>Automation execution</t>
+  </si>
+  <si>
+    <t>Total automation execution</t>
+  </si>
+  <si>
+    <t>Test  Scenario Preparation of HICA-2613</t>
+  </si>
+  <si>
+    <t>HICA-2596:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>HICA-1909: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Yet to start</t>
+  </si>
+  <si>
+    <t> 9/11/2023</t>
+  </si>
+  <si>
+    <t>Bugs Identified</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Execution of HICA-2596</t>
+  </si>
+  <si>
+    <t>HICA-2613:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Automation coverage %</t>
+  </si>
+  <si>
+    <t>Execution of HICA-2613</t>
+  </si>
+  <si>
+    <t>HICA-2613:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Prepared SDLC document for HICA-2613</t>
+  </si>
+  <si>
+    <t>HICA-853: Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Call with Venkat</t>
+  </si>
+  <si>
+    <t>HICA-853: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Call with Ayesha</t>
+  </si>
+  <si>
+    <t>Analysis of HICA-1909</t>
   </si>
   <si>
     <r>
@@ -150,48 +295,16 @@
     </r>
   </si>
   <si>
-    <t>Yet to attend</t>
-  </si>
-  <si>
-    <t>No defect logged for the week.</t>
-  </si>
-  <si>
-    <t>Manual created</t>
-  </si>
-  <si>
-    <t>Total manual</t>
+    <t>No defect logged for the week</t>
   </si>
   <si>
     <t>Attended Sprint review &amp; Retrospective meeting</t>
   </si>
   <si>
-    <t>Venkateswaran. Karuppian Ganesan</t>
-  </si>
-  <si>
     <t>Sprint Review and Retrospective meeting</t>
   </si>
   <si>
-    <r>
-      <t>Attend Weekly Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> with Business</t>
-    </r>
-  </si>
-  <si>
-    <t>Manual execution</t>
-  </si>
-  <si>
-    <t>Total manual execution</t>
-  </si>
-  <si>
-    <t>Attended Sprint planning call</t>
+    <t>Attended Sprint Planning meeting</t>
   </si>
   <si>
     <t>Hrushikeshreddy Ambati</t>
@@ -200,236 +313,93 @@
     <t>Sprint Planning meeting</t>
   </si>
   <si>
-    <t>HICA-2596: Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>Yet to start</t>
-  </si>
-  <si>
-    <t>Automation created</t>
-  </si>
-  <si>
-    <t>Total automation</t>
-  </si>
-  <si>
-    <t>Attended Weekly call with Business</t>
-  </si>
-  <si>
-    <r>
-      <t>Attended Weekly call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> with Business</t>
-    </r>
-  </si>
-  <si>
-    <t>Automation execution</t>
-  </si>
-  <si>
-    <t>Total automation execution</t>
-  </si>
-  <si>
-    <t>Execution of HICA-2563</t>
-  </si>
-  <si>
-    <t>HICA-2563:Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
-    <t>Total bugs</t>
-  </si>
-  <si>
-    <t>Execution of HICA-2603</t>
-  </si>
-  <si>
-    <t>HICA-2603: Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>Automation coverage %</t>
-  </si>
-  <si>
-    <t>Testcase preparation of HICA-2596</t>
-  </si>
-  <si>
-    <t>HICA-2596: Test Scenario Preparation</t>
-  </si>
-  <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
-    <t>Call with Mehul</t>
+    <t>Work on the developed sprint items for Testing and Test scenarios</t>
+  </si>
+  <si>
+    <t>Test  Scenario Preparation of HICA-1909</t>
+  </si>
+  <si>
+    <t>HICA-1909:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Analyzed  test scenario for HICA-1909</t>
+  </si>
+  <si>
+    <t>Test  Scenario Execution of HICA-1909</t>
+  </si>
+  <si>
+    <t>Call with Shantanu</t>
+  </si>
+  <si>
+    <t>HICA-2777 </t>
+  </si>
+  <si>
+    <t>Verification PointSpecialAllocation page: Modified Paying entity is not displayed in the Verification page.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Sibin</t>
+  </si>
+  <si>
+    <t>Attended Weekly meeting with Business</t>
+  </si>
+  <si>
+    <t>Attended Business call about PE issue for PSA</t>
+  </si>
+  <si>
+    <t>HICA-1909:QA document Preparation</t>
+  </si>
+  <si>
+    <t>HICA-2493:Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>QA document preparation for HICA-1909</t>
+  </si>
+  <si>
+    <t>HICA-2773: Test Scenario execution</t>
+  </si>
+  <si>
+    <t>HICA-1636: Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Test case preparation for HICA-2493</t>
+  </si>
+  <si>
+    <t>HICA-2773: QA document execution</t>
+  </si>
+  <si>
+    <t>HICA-1636: Test Scenario Execution</t>
+  </si>
+  <si>
+    <t>Test  Scenario Execution of HICA-2493</t>
+  </si>
+  <si>
+    <t>HICA-2493:Test Scenario Preparation</t>
+  </si>
+  <si>
+    <t>Analysis and DB queries preparation for</t>
+  </si>
+  <si>
+    <t> HICA-2773</t>
+  </si>
+  <si>
+    <t>Execution of HICA-2773</t>
+  </si>
+  <si>
+    <t>QA document preparation for HICA-2773</t>
+  </si>
+  <si>
+    <t>Testcase preparation for HICA-1636</t>
   </si>
   <si>
     <t>Call with Sibin</t>
   </si>
   <si>
-    <t>KT to Venkat on ICS modules</t>
-  </si>
-  <si>
-    <t>Attend Sprint Review and Retrospective Meeting</t>
-  </si>
-  <si>
-    <t>No defect logged for the week</t>
-  </si>
-  <si>
-    <t>Attended Sizing and Backlog Refinement meeting</t>
-  </si>
-  <si>
-    <t>Attended Sizing and Backlog Refinement</t>
-  </si>
-  <si>
-    <t>Attend Spring Planning call</t>
-  </si>
-  <si>
-    <t>Test  Scenario Preparation of HICA-2596</t>
-  </si>
-  <si>
-    <t>HICA-2596:Test Scenario Preparation</t>
-  </si>
-  <si>
-    <t>HICA-1909:Test Scenario Preparation</t>
-  </si>
-  <si>
-    <t>Yet to Start</t>
-  </si>
-  <si>
-    <t>Test  Scenario Preparation of HICA-2613</t>
-  </si>
-  <si>
-    <t>HICA-2596:Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>HICA-1909: Test Scenario Execution</t>
-  </si>
-  <si>
-    <t> 9/11/2023</t>
-  </si>
-  <si>
-    <t>Execution of HICA-2596</t>
-  </si>
-  <si>
-    <t>HICA-2613:Test Scenario Preparation</t>
-  </si>
-  <si>
-    <t>Execution of HICA-2613</t>
-  </si>
-  <si>
-    <t>HICA-2613:Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>Prepared SDLC document for HICA-2613</t>
-  </si>
-  <si>
-    <t>HICA-853: Test Scenario Preparation</t>
-  </si>
-  <si>
-    <t>Call with Venkat</t>
-  </si>
-  <si>
-    <t>HICA-853: Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>Call with Ayesha</t>
-  </si>
-  <si>
-    <t>Analysis of HICA-1909</t>
-  </si>
-  <si>
-    <t>Attended Sprint Planning meeting</t>
-  </si>
-  <si>
-    <t>Work on the developed sprint items for Testing and Test scenarios</t>
-  </si>
-  <si>
-    <t>Test  Scenario Preparation of HICA-1909</t>
-  </si>
-  <si>
-    <t>HICA-1909:Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>Analyzed  test scenario for HICA-1909</t>
-  </si>
-  <si>
-    <t>Test  Scenario Execution of HICA-1909</t>
-  </si>
-  <si>
-    <t>Call with Shantanu</t>
-  </si>
-  <si>
-    <t>HICA-2777 </t>
-  </si>
-  <si>
-    <t>Verification PointSpecialAllocation page: Modified Paying entity is not displayed in the Verification page.</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Sibin</t>
-  </si>
-  <si>
-    <t>Attended Weekly meeting with Business</t>
-  </si>
-  <si>
-    <t>Attended Business call about PE issue for PSA</t>
-  </si>
-  <si>
-    <t>HICA-1909:QA document Preparation</t>
-  </si>
-  <si>
-    <t>HICA-2493:Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>QA document preparation for HICA-1909</t>
-  </si>
-  <si>
-    <t>HICA-2773: Test Scenario execution</t>
-  </si>
-  <si>
-    <t>HICA-1636: Test Scenario Preparation</t>
-  </si>
-  <si>
-    <t>Test case preparation for HICA-2493</t>
-  </si>
-  <si>
-    <t>HICA-2773: QA document execution</t>
-  </si>
-  <si>
-    <t>HICA-1636: Test Scenario Execution</t>
-  </si>
-  <si>
-    <t>Test  Scenario Execution of HICA-2493</t>
-  </si>
-  <si>
-    <t>HICA-2493:Test Scenario Preparation</t>
-  </si>
-  <si>
-    <t>Analysis and DB queries preparation for</t>
-  </si>
-  <si>
-    <t> HICA-2773</t>
-  </si>
-  <si>
-    <t>Execution of HICA-2773</t>
-  </si>
-  <si>
-    <t>QA document preparation for HICA-2773</t>
-  </si>
-  <si>
-    <t>Testcase preparation for HICA-1636</t>
-  </si>
-  <si>
     <t>Attended Sprint Review and Retrospective meeting</t>
   </si>
   <si>
@@ -521,9 +491,6 @@
   </si>
   <si>
     <t>Attend Sprint Sizing and Backlog Refinement call</t>
-  </si>
-  <si>
-    <t>No defects Logged for the week</t>
   </si>
   <si>
     <t>Sprint Review and Retrospective</t>
@@ -850,12 +817,27 @@
   <si>
     <t>Executed modification grants tocheck which modification goes to verification queue</t>
   </si>
+  <si>
+    <t>Sizing and Backlog Refinement</t>
+  </si>
+  <si>
+    <t>Sizing and Backlog Refinement meeting</t>
+  </si>
+  <si>
+    <t>HICA-1647 Test cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-2660 Execution</t>
+  </si>
+  <si>
+    <t>Cal With Sibin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +967,12 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1158,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1303,15 +1291,14 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1602,13 +1589,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB56B5C0-F42E-401A-808B-3B98D8855F6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8748CD-7F10-44D1-8E93-D799CB47B1BF}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
@@ -1638,11 +1625,7 @@
     <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="4"/>
-    <col min="28" max="28" width="32" style="4" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="4"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
@@ -1722,16 +1705,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="27">
-        <v>2</v>
-      </c>
-      <c r="C2" s="59"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="58"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
-        <v>29.5</v>
-      </c>
-      <c r="F2" s="59"/>
+      <c r="E2" s="59">
+        <v>23.5</v>
+      </c>
+      <c r="F2" s="58"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -1742,42 +1725,42 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="59"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="28" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="29" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="59" t="s">
+      <c r="Q2" s="60"/>
+      <c r="R2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="58"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="Z2" s="34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" s="35"/>
       <c r="AB2" s="36" t="s">
         <v>32</v>
       </c>
       <c r="AC2" s="34">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
@@ -1785,17 +1768,17 @@
         <v>33</v>
       </c>
       <c r="B3" s="27">
-        <v>3</v>
-      </c>
-      <c r="C3" s="59"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="60">
-        <v>3.5</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="59">
+        <v>18.5</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="28" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="29" t="s">
@@ -1805,140 +1788,142 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="28" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="29" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
       <c r="Z3" s="34">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AA3" s="35"/>
       <c r="AB3" s="36" t="s">
         <v>38</v>
       </c>
       <c r="AC3" s="34">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="30.75">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="27">
-        <v>2</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="60">
-        <v>1</v>
-      </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="31" t="s">
+      <c r="H4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="31" t="s">
+      <c r="M4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="36" t="s">
         <v>42</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="36" t="s">
-        <v>44</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="30.75">
-      <c r="A5" s="26" t="s">
+      <c r="H5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="27">
-        <v>1</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="28" t="s">
+      <c r="M5" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="N5" s="33">
+        <v>45179</v>
+      </c>
       <c r="O5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -1953,17 +1938,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="27">
-        <v>13</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="31" t="s">
         <v>51</v>
       </c>
@@ -1974,47 +1959,53 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.75">
+    <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B7" s="27">
-        <v>8</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
+        <v>20</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>26</v>
@@ -2023,330 +2014,346 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="30.75">
       <c r="A8" s="26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" s="27">
-        <v>2</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
+        <v>5.5</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="33">
-        <v>45202</v>
+        <v>26</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+    </row>
+    <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" s="27">
-        <v>1</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" s="27">
-        <v>1</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="33">
+        <v>45179</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-    </row>
-    <row r="11" spans="1:29" ht="30.75">
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B11" s="27">
-        <v>1</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+    </row>
+    <row r="12" spans="1:29" ht="30.75">
+      <c r="A12" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -2357,435 +2364,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C06682B-CCC8-4227-B649-E79E597C8C0E}">
-  <dimension ref="A1:AC12"/>
-  <sheetViews>
-    <sheetView topLeftCell="S3" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="42">
-        <v>1.85</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11">
-        <v>31.1</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="R2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="34">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="G3" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="24"/>
-      <c r="Y3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="34">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="43">
-        <v>1</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="24"/>
-      <c r="Y4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="43">
-        <v>2</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="43">
-        <v>4</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="43">
-        <v>7.5</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC7" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="45.75">
-      <c r="A8" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="43">
-        <v>2</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="30.75">
-      <c r="A9" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="43">
-        <v>4</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="30.75">
-      <c r="A10" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="43">
-        <v>7</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="30.75">
-      <c r="A11" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="43">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BD558A-02A2-49EB-B2FD-6ED6ADD77A05}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
@@ -2917,7 +2499,7 @@
         <v>27</v>
       </c>
       <c r="L2" s="51" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M2" s="46" t="s">
         <v>29</v>
@@ -2930,7 +2512,7 @@
       </c>
       <c r="P2" s="24"/>
       <c r="R2" s="10" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="36" t="s">
         <v>31</v>
@@ -2948,14 +2530,14 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="41" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B3" s="41">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
       <c r="G3" s="45" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H3" s="45" t="s">
         <v>26</v>
@@ -2967,10 +2549,10 @@
         <v>27</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M3" s="46" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N3" s="47"/>
       <c r="O3" s="47"/>
@@ -2991,13 +2573,13 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="41" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B4" s="41">
         <v>1</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>26</v>
@@ -3005,10 +2587,10 @@
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="L4" s="46" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N4" s="52">
         <v>45271</v>
@@ -3016,14 +2598,14 @@
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -3031,13 +2613,13 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="41" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B5" s="41">
         <v>0.85</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>26</v>
@@ -3064,13 +2646,13 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="41" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B6" s="41">
         <v>0.5</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>26</v>
@@ -3082,14 +2664,14 @@
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>53</v>
@@ -3097,13 +2679,13 @@
     </row>
     <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="44" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B7" s="41">
         <v>3</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H7" s="48" t="s">
         <v>26</v>
@@ -3118,7 +2700,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -3126,13 +2708,13 @@
     </row>
     <row r="8" spans="1:29" ht="30.75">
       <c r="A8" s="44" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B8" s="41">
         <v>2</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>26</v>
@@ -3146,13 +2728,13 @@
     </row>
     <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="44" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B9" s="41">
         <v>3</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>26</v>
@@ -3166,13 +2748,13 @@
     </row>
     <row r="10" spans="1:29" ht="30.75">
       <c r="A10" s="44" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B10" s="41">
         <v>4</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>26</v>
@@ -3186,16 +2768,16 @@
     </row>
     <row r="11" spans="1:29" ht="30.75">
       <c r="A11" s="44" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B11" s="41">
         <v>2</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I11" s="50">
         <v>45271</v>
@@ -3204,7 +2786,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="44" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B12" s="41">
         <v>2.5</v>
@@ -3212,7 +2794,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="44" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B13" s="41">
         <v>5</v>
@@ -3220,7 +2802,7 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="44" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B14" s="41">
         <v>2</v>
@@ -3228,7 +2810,7 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="44" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B15" s="41">
         <v>4</v>
@@ -3236,7 +2818,7 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="44" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B16" s="41">
         <v>1</v>
@@ -3244,7 +2826,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="44" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B17" s="41">
         <v>1</v>
@@ -3255,11 +2837,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D260808B-B798-41E6-9F28-E695E23C2420}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
@@ -3386,7 +2968,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="L2" s="23" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>29</v>
@@ -3399,7 +2981,7 @@
       </c>
       <c r="P2" s="24"/>
       <c r="R2" s="10" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="36" t="s">
         <v>31</v>
@@ -3417,14 +2999,14 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="41" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B3" s="43">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
       <c r="G3" s="24" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>26</v>
@@ -3436,7 +3018,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="M3" s="24" t="s">
         <v>29</v>
@@ -3464,13 +3046,13 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="41" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B4" s="43">
         <v>7.65</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>26</v>
@@ -3482,7 +3064,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>29</v>
@@ -3493,14 +3075,14 @@
       </c>
       <c r="P4" s="24"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -3508,13 +3090,13 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="41" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B5" s="43">
         <v>14.5</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>26</v>
@@ -3541,13 +3123,13 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="41" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B6" s="43">
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>26</v>
@@ -3559,14 +3141,14 @@
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>53</v>
@@ -3576,7 +3158,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>26</v>
@@ -3589,7 +3171,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -3604,11 +3186,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327522CC-4B96-49E2-ABD8-E8F790DB38F2}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView topLeftCell="V5" workbookViewId="0">
+    <sheetView topLeftCell="O2" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
@@ -3735,7 +3317,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="L2" s="23" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>29</v>
@@ -3748,7 +3330,7 @@
       </c>
       <c r="P2" s="24"/>
       <c r="R2" s="10" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="36" t="s">
         <v>31</v>
@@ -3766,14 +3348,14 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="41" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B3" s="43">
         <v>1</v>
       </c>
       <c r="D3" s="21"/>
       <c r="G3" s="24" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>26</v>
@@ -3785,7 +3367,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="M3" s="24" t="s">
         <v>29</v>
@@ -3813,13 +3395,13 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="41" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B4" s="43">
         <v>7.65</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>26</v>
@@ -3831,7 +3413,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>29</v>
@@ -3842,14 +3424,14 @@
       </c>
       <c r="P4" s="24"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -3857,13 +3439,13 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="41" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B5" s="43">
         <v>14.5</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>26</v>
@@ -3890,13 +3472,13 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="41" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B6" s="43">
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>26</v>
@@ -3908,14 +3490,14 @@
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>53</v>
@@ -3925,7 +3507,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>26</v>
@@ -3938,7 +3520,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -3953,7 +3535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73F7D88-B585-4E3C-95BF-2E151A5BB3AF}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
@@ -4084,7 +3666,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="L2" s="53" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M2" s="53" t="s">
         <v>29</v>
@@ -4097,7 +3679,7 @@
       </c>
       <c r="P2" s="24"/>
       <c r="R2" s="10" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="36" t="s">
         <v>31</v>
@@ -4115,14 +3697,14 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="44" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B3" s="41">
         <v>5</v>
       </c>
       <c r="D3" s="21"/>
       <c r="G3" s="27" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>26</v>
@@ -4134,10 +3716,10 @@
         <v>27</v>
       </c>
       <c r="L3" s="53" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M3" s="53" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N3" s="24" t="s">
         <v>27</v>
@@ -4162,13 +3744,13 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="44" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B4" s="41">
         <v>3.5</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>26</v>
@@ -4187,14 +3769,14 @@
       </c>
       <c r="P4" s="24"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -4202,13 +3784,13 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="44" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B5" s="41">
         <v>4.5</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>26</v>
@@ -4235,13 +3817,13 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="44" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B6" s="41">
         <v>5</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>26</v>
@@ -4253,14 +3835,14 @@
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>53</v>
@@ -4279,7 +3861,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -4294,12 +3876,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C53DED1-CA0E-466B-88CE-A15B7B000C07}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4404,7 +3986,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="33">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="42">
@@ -4429,7 +4011,7 @@
         <v>27</v>
       </c>
       <c r="L2" s="51" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M2" s="46" t="s">
         <v>29</v>
@@ -4442,7 +4024,7 @@
       </c>
       <c r="P2" s="24"/>
       <c r="R2" s="10" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="36" t="s">
         <v>31</v>
@@ -4459,15 +4041,15 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="57" t="s">
-        <v>236</v>
+      <c r="A3" s="44" t="s">
+        <v>225</v>
       </c>
       <c r="B3" s="43">
         <v>2</v>
       </c>
       <c r="D3" s="21"/>
       <c r="G3" s="45" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H3" s="45" t="s">
         <v>26</v>
@@ -4479,10 +4061,10 @@
         <v>27</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M3" s="46" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N3" s="46" t="s">
         <v>27</v>
@@ -4504,14 +4086,14 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="57" t="s">
-        <v>237</v>
+      <c r="A4" s="44" t="s">
+        <v>226</v>
       </c>
       <c r="B4" s="43">
         <v>1</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>26</v>
@@ -4526,28 +4108,28 @@
       <c r="O4"/>
       <c r="P4" s="24"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="57" t="s">
-        <v>215</v>
+      <c r="A5" s="44" t="s">
+        <v>204</v>
       </c>
       <c r="B5" s="43">
         <v>0.5</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>26</v>
@@ -4573,14 +4155,14 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.75">
-      <c r="A6" s="56" t="s">
-        <v>239</v>
+      <c r="A6" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="B6" s="42">
         <v>1</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>26</v>
@@ -4592,28 +4174,28 @@
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="57" t="s">
-        <v>240</v>
+      <c r="A7" s="44" t="s">
+        <v>229</v>
       </c>
       <c r="B7" s="43">
         <v>12.5</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H7" s="48" t="s">
         <v>26</v>
@@ -4628,24 +4210,24 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="30.75">
-      <c r="A8" s="57" t="s">
-        <v>241</v>
+      <c r="A8" s="44" t="s">
+        <v>230</v>
       </c>
       <c r="B8" s="43">
         <v>3.5</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I8" s="50">
         <v>45300</v>
@@ -4655,14 +4237,14 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="106.5">
-      <c r="A9" s="58" t="s">
-        <v>243</v>
+      <c r="A9" s="54" t="s">
+        <v>232</v>
       </c>
       <c r="B9" s="43">
         <v>3</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>26</v>
@@ -4670,6 +4252,375 @@
       <c r="I9" s="48" t="s">
         <v>27</v>
       </c>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A51BC-826D-4CD2-AF7B-0BAD5EBE4D6C}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="33">
+      <c r="A2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="42">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11">
+        <v>33</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="R2" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="G3" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="L3" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="46"/>
+      <c r="P3" s="24"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" s="24"/>
+      <c r="Y4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="43">
+        <v>5</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="43">
+        <v>15.5</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="43">
+        <v>6.5</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:29" ht="16.5">
+      <c r="A9" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="43">
+        <v>2</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:29">
@@ -4684,14 +4635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8748CD-7F10-44D1-8E93-D799CB47B1BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF5D862-FF0F-4358-B810-C7D9B96A86B1}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R3" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4802,175 +4753,161 @@
       <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="59">
         <v>23.5</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="59"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="58"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="Z2" s="34">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="35"/>
       <c r="AB2" s="36" t="s">
         <v>32</v>
       </c>
       <c r="AC2" s="34">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B3" s="27">
-        <v>2</v>
-      </c>
-      <c r="C3" s="59"/>
+        <v>6</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="60">
-        <v>18.5</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="28" t="s">
-        <v>66</v>
+      <c r="E3" s="59">
+        <v>2</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>27</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="28" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
       <c r="Z3" s="34">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="35"/>
       <c r="AB3" s="36" t="s">
         <v>38</v>
       </c>
       <c r="AC3" s="34">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="26" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B4" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="28" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="59">
+        <v>17</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>27</v>
-      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="28" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -4978,47 +4915,37 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="26" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B5" s="27">
-        <v>2</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="31" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>27</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="33">
-        <v>45179</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -5035,54 +4962,46 @@
     </row>
     <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="26" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="31" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>27</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>50</v>
@@ -5090,365 +5009,325 @@
     </row>
     <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B7" s="27">
-        <v>20</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29">
       <c r="A8" s="26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B8" s="27">
-        <v>5.5</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>27</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
-      <c r="A9" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>27</v>
-      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="27">
-        <v>2</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="33">
-        <v>45179</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="27">
-        <v>2</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-    </row>
-    <row r="12" spans="1:29" ht="30.75">
-      <c r="A12" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -5459,714 +5338,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF5D862-FF0F-4358-B810-C7D9B96A86B1}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:AC18"/>
-  <sheetViews>
-    <sheetView topLeftCell="W3" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="27">
-        <v>3</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="60">
-        <v>23.5</v>
-      </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="34">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="27">
-        <v>6</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="60">
-        <v>2</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="34">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="45.75">
-      <c r="A4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="27">
-        <v>2</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="60">
-        <v>17</v>
-      </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="27">
-        <v>3</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="45.75">
-      <c r="A6" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="27">
-        <v>2</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="60.75">
-      <c r="A7" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="27">
-        <v>26</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC7" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CE0F83-7BD2-4302-9A0B-157BEE40A8C5}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U4" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
@@ -6279,14 +5457,14 @@
       <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="59">
         <v>36.450000000000003</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -6297,9 +5475,9 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="59"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="28" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>29</v>
@@ -6310,23 +5488,23 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="59"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="59"/>
+        <v>83</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="58"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="58"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -6343,21 +5521,21 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="26" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B3" s="27">
         <v>4</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="60">
-        <v>27</v>
-      </c>
-      <c r="F3" s="59"/>
+      <c r="E3" s="59">
+        <v>27</v>
+      </c>
+      <c r="F3" s="58"/>
       <c r="G3" s="28" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>26</v>
@@ -6366,9 +5544,9 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="28" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>29</v>
@@ -6378,14 +5556,14 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -6402,17 +5580,17 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="26" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>26</v>
@@ -6421,9 +5599,9 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>29</v>
@@ -6433,23 +5611,23 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -6457,17 +5635,17 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="26" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="31" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>26</v>
@@ -6476,26 +5654,26 @@
         <v>27</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="59"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="31" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N5" s="33">
         <v>45224</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -6512,17 +5690,17 @@
     </row>
     <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="26" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B6" s="27">
         <v>1.5</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="31" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>26</v>
@@ -6531,35 +5709,35 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="59"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="31" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N6" s="33">
         <v>45223</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>1</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>51</v>
@@ -6567,17 +5745,17 @@
     </row>
     <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="26" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>26</v>
@@ -6586,31 +5764,31 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="31" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N7" s="33">
         <v>45223</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -6618,17 +5796,17 @@
     </row>
     <row r="8" spans="1:29" ht="45.75">
       <c r="A8" s="26" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B8" s="27">
         <v>26.45</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="31" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>26</v>
@@ -6637,309 +5815,309 @@
         <v>27</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
     </row>
     <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="54">
+        <v>99</v>
+      </c>
+      <c r="B9" s="56">
         <v>2</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="31" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I9" s="33">
         <v>45224</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
     </row>
     <row r="11" spans="1:29" ht="30.75">
       <c r="A11" s="26" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B11" s="27">
         <v>6</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
     </row>
     <row r="12" spans="1:29" ht="45.75">
       <c r="A12" s="26" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B12" s="27">
         <v>1</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
     </row>
     <row r="13" spans="1:29" ht="45.75">
       <c r="A13" s="26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B13" s="27">
         <v>7</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="26" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B14" s="27">
         <v>2.5</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="26" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B15" s="27">
         <v>1</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="26" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B16" s="27">
         <v>1</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -6952,15 +6130,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F766BBD1-50F0-4EF2-A023-259EAA3DA348}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="W4" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -7072,14 +6250,14 @@
       <c r="B2" s="27">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="59">
         <v>23.5</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -7088,9 +6266,9 @@
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="59"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="28" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>29</v>
@@ -7098,14 +6276,16 @@
       <c r="N2" s="29"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="58"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -7122,30 +6302,30 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="26" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B3" s="27">
         <v>6</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="59">
         <v>2</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="31" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>29</v>
@@ -7153,14 +6333,14 @@
       <c r="N3" s="29"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -7177,54 +6357,54 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="26" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="60">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="59">
         <v>32</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="31" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="28" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N4" s="29"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -7232,37 +6412,37 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="26" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="31" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="59"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="31"/>
       <c r="M5" s="29"/>
       <c r="N5" s="33"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -7279,46 +6459,46 @@
     </row>
     <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="26" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B6" s="27">
         <v>4.5</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="59"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="31"/>
       <c r="M6" s="29"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>51</v>
@@ -7326,42 +6506,42 @@
     </row>
     <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="26" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B7" s="27">
         <v>18</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="31" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="31"/>
       <c r="M7" s="29"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -7369,306 +6549,306 @@
     </row>
     <row r="8" spans="1:29" ht="45.75">
       <c r="A8" s="26" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="31" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
     </row>
     <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="26" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="31" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
     </row>
     <row r="10" spans="1:29" ht="60.75">
       <c r="A10" s="26" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B10" s="27">
         <v>18</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="26" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -7678,14 +6858,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U4" workbookViewId="0">
+    <sheetView topLeftCell="R2" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
@@ -7797,14 +6977,14 @@
       <c r="B2" s="1">
         <v>4.3</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="59">
         <v>32.15</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7813,9 +6993,9 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="59"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
@@ -7827,26 +7007,26 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="S2" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="59"/>
-      <c r="W2" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="X2" s="59"/>
+      <c r="Q2" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="58"/>
+      <c r="W2" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="X2" s="58"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -7863,21 +7043,21 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="59">
         <v>40.15</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>26</v>
@@ -7888,9 +7068,9 @@
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>29</v>
@@ -7902,14 +7082,14 @@
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -7926,17 +7106,17 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1">
         <v>32</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>26</v>
@@ -7947,9 +7127,9 @@
       <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>29</v>
@@ -7961,23 +7141,23 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -7985,17 +7165,17 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1">
         <v>1.5</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>26</v>
@@ -8006,9 +7186,9 @@
       <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="59"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>29</v>
@@ -8018,14 +7198,14 @@
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -8042,20 +7222,20 @@
     </row>
     <row r="6" spans="1:29" ht="60.75">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1">
         <v>0.5</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I6" s="5">
         <v>45236</v>
@@ -8063,29 +7243,29 @@
       <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>1</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>52</v>
@@ -8093,17 +7273,17 @@
     </row>
     <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>26</v>
@@ -8114,25 +7294,25 @@
       <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -8140,17 +7320,17 @@
     </row>
     <row r="8" spans="1:29" ht="45.75">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>26</v>
@@ -8161,39 +7341,39 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
     </row>
     <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>26</v>
@@ -8204,42 +7384,42 @@
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
     </row>
     <row r="10" spans="1:29" ht="30.75">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I10" s="5">
         <v>45266</v>
@@ -8247,231 +7427,231 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
     </row>
     <row r="11" spans="1:29" ht="30.75">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1">
         <v>9.5</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
     </row>
     <row r="12" spans="1:29" ht="45.75">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1">
         <v>3.5</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
     </row>
     <row r="13" spans="1:29" ht="30.75">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -8481,15 +7661,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -8622,7 +7802,7 @@
         <v>27</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>29</v>
@@ -8635,8 +7815,8 @@
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="10" t="s">
-        <v>146</v>
+      <c r="R2" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="Y2" s="36" t="s">
         <v>31</v>
@@ -8654,7 +7834,7 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B3" s="12">
         <v>6</v>
@@ -8666,7 +7846,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>26</v>
@@ -8681,10 +7861,10 @@
         <v>27</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>27</v>
@@ -8710,13 +7890,13 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>26</v>
@@ -8731,14 +7911,14 @@
         <v>27</v>
       </c>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -8746,7 +7926,7 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -8767,20 +7947,20 @@
     </row>
     <row r="6" spans="1:29" ht="45.75">
       <c r="A6" s="12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>52</v>
@@ -8788,7 +7968,7 @@
     </row>
     <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B7" s="12">
         <v>3</v>
@@ -8797,7 +7977,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -8805,7 +7985,7 @@
     </row>
     <row r="8" spans="1:29" ht="60.75">
       <c r="A8" s="12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B8" s="12">
         <v>0.5</v>
@@ -8813,7 +7993,7 @@
     </row>
     <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B9" s="15">
         <v>3.5</v>
@@ -8821,7 +8001,7 @@
     </row>
     <row r="10" spans="1:29" ht="30.75">
       <c r="A10" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B10" s="12">
         <v>8</v>
@@ -8829,7 +8009,7 @@
     </row>
     <row r="11" spans="1:29" ht="45.75">
       <c r="A11" s="12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B11" s="12">
         <v>28</v>
@@ -8837,7 +8017,7 @@
     </row>
     <row r="12" spans="1:29" ht="45.75">
       <c r="A12" s="12" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B12" s="12">
         <v>3</v>
@@ -8845,7 +8025,7 @@
     </row>
     <row r="13" spans="1:29" ht="45.75">
       <c r="A13" s="12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B13" s="12">
         <v>4.5</v>
@@ -8853,7 +8033,7 @@
     </row>
     <row r="14" spans="1:29" ht="45.75">
       <c r="A14" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B14" s="12">
         <v>2.5</v>
@@ -8861,7 +8041,7 @@
     </row>
     <row r="15" spans="1:29" ht="45.75">
       <c r="A15" s="12" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B15" s="12">
         <v>4</v>
@@ -8869,7 +8049,7 @@
     </row>
     <row r="16" spans="1:29" ht="45.75">
       <c r="A16" s="12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B16" s="12">
         <v>0.3</v>
@@ -8877,7 +8057,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B17" s="12">
         <v>0.4</v>
@@ -8885,7 +8065,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
@@ -8893,7 +8073,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B19" s="12">
         <v>1</v>
@@ -8901,7 +8081,7 @@
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="12" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
@@ -8914,14 +8094,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U4" workbookViewId="0">
+    <sheetView topLeftCell="P2" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
@@ -9059,7 +8239,7 @@
         <v>27</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>29</v>
@@ -9072,22 +8252,22 @@
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="Y2" s="36" t="s">
         <v>31</v>
@@ -9105,7 +8285,7 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B3" s="12">
         <v>2</v>
@@ -9117,7 +8297,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>26</v>
@@ -9132,7 +8312,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>29</v>
@@ -9160,13 +8340,13 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>26</v>
@@ -9181,7 +8361,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>29</v>
@@ -9194,14 +8374,14 @@
       </c>
       <c r="P4" s="19"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -9209,13 +8389,13 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="12" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>26</v>
@@ -9245,13 +8425,13 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="12" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B6" s="12">
         <v>19</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>26</v>
@@ -9266,14 +8446,14 @@
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>1</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>53</v>
@@ -9281,13 +8461,13 @@
     </row>
     <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B7" s="12">
         <v>2</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>26</v>
@@ -9305,7 +8485,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -9313,13 +8493,13 @@
     </row>
     <row r="8" spans="1:29" ht="30.75">
       <c r="A8" s="12" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B8" s="12">
         <v>2</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>26</v>
@@ -9336,13 +8516,13 @@
     </row>
     <row r="9" spans="1:29" ht="30.75">
       <c r="A9" s="12" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B9" s="12">
         <v>4</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>26</v>
@@ -9359,13 +8539,13 @@
     </row>
     <row r="10" spans="1:29" ht="45.75">
       <c r="A10" s="12" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>26</v>
@@ -9382,16 +8562,16 @@
     </row>
     <row r="11" spans="1:29" ht="30.75">
       <c r="A11" s="12" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B11" s="12">
         <v>8</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I11" s="20">
         <v>45250</v>
@@ -9405,16 +8585,16 @@
     </row>
     <row r="12" spans="1:29" ht="30.75">
       <c r="A12" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B12" s="12">
         <v>9</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>27</v>
@@ -9428,7 +8608,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="12" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B13" s="12">
         <v>0.5</v>
@@ -9444,15 +8624,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView topLeftCell="V5" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9578,7 +8758,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="L2" s="23" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>29</v>
@@ -9590,6 +8770,9 @@
         <v>27</v>
       </c>
       <c r="P2" s="24"/>
+      <c r="R2" s="55" t="s">
+        <v>70</v>
+      </c>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -9606,19 +8789,19 @@
     </row>
     <row r="3" spans="1:29" ht="60.75">
       <c r="A3" s="12" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E3" s="11">
         <v>1.5</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>26</v>
@@ -9630,7 +8813,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="M3" s="24" t="s">
         <v>29</v>
@@ -9658,13 +8841,13 @@
     </row>
     <row r="4" spans="1:29" ht="45.75">
       <c r="A4" s="12" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>26</v>
@@ -9676,7 +8859,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>29</v>
@@ -9687,14 +8870,14 @@
       </c>
       <c r="P4" s="24"/>
       <c r="Y4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="34">
         <v>0</v>
       </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="34">
         <v>0</v>
@@ -9702,13 +8885,13 @@
     </row>
     <row r="5" spans="1:29" ht="76.5">
       <c r="A5" s="12" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>26</v>
@@ -9735,13 +8918,13 @@
     </row>
     <row r="6" spans="1:29" ht="30.75">
       <c r="A6" s="12" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>26</v>
@@ -9753,14 +8936,14 @@
         <v>27</v>
       </c>
       <c r="Y6" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="34">
         <v>0</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="34">
         <v>53</v>
@@ -9768,13 +8951,13 @@
     </row>
     <row r="7" spans="1:29" ht="60.75">
       <c r="A7" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B7" s="12">
         <v>6</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>26</v>
@@ -9787,7 +8970,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
       <c r="AB7" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="34">
         <v>0</v>
@@ -9795,7 +8978,7 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="12" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B8" s="12">
         <v>0.5</v>
@@ -9805,6 +8988,431 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C06682B-CCC8-4227-B649-E79E597C8C0E}">
+  <dimension ref="A1:AC12"/>
+  <sheetViews>
+    <sheetView topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="42">
+        <v>1.85</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11">
+        <v>31.1</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="R2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="G3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="24"/>
+      <c r="Y3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Y4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="43">
+        <v>2</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="43">
+        <v>4</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="43">
+        <v>7.5</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45.75">
+      <c r="A8" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="43">
+        <v>2</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="30.75">
+      <c r="A9" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="43">
+        <v>4</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="30.75">
+      <c r="A10" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="43">
+        <v>7</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="30.75">
+      <c r="A11" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="43">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9819,8 +9427,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
     <xsd:import namespace="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
     <xsd:element name="properties">
@@ -9834,6 +9448,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9857,6 +9472,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9989,20 +9609,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D113E50-46D0-45C1-80B7-88D5DB1FE105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A593B130-113F-4160-ACCA-A0F8D24B6ADC}"/>
 </file>
--- a/dataSources/WSR/ICS.xlsx
+++ b/dataSources/WSR/ICS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E1932FE-5F08-48F9-95E9-E404D11BE388}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BEC273-BFB9-4261-A0A9-FDDB1284B516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="239">
   <si>
     <t>Task Name</t>
   </si>
@@ -832,12 +832,15 @@
   <si>
     <t>Cal With Sibin</t>
   </si>
+  <si>
+    <t>Project Metrics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,12 +1298,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1308,6 +1305,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1595,40 +1598,40 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1700,21 +1703,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="57">
         <v>23.5</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="58"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="28" t="s">
         <v>28</v>
       </c>
@@ -1739,16 +1742,16 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="58" t="s">
+      <c r="Q2" s="58"/>
+      <c r="R2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -1763,21 +1766,21 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="57">
         <v>18.5</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="28" t="s">
         <v>35</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="58"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="28" t="s">
         <v>36</v>
       </c>
@@ -1802,14 +1805,14 @@
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -1824,17 +1827,17 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="27">
         <v>1.5</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="28" t="s">
         <v>40</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="58"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="28" t="s">
         <v>41</v>
       </c>
@@ -1859,14 +1862,14 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
       <c r="Y4" s="36" t="s">
         <v>42</v>
       </c>
@@ -1881,17 +1884,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="31" t="s">
         <v>45</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="58"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="31" t="s">
         <v>46</v>
       </c>
@@ -1916,14 +1919,14 @@
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -1938,17 +1941,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="58"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="31" t="s">
         <v>51</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="58"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="31" t="s">
         <v>52</v>
       </c>
@@ -1969,16 +1972,16 @@
       <c r="N6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
       <c r="Y6" s="36" t="s">
         <v>55</v>
       </c>
@@ -1993,17 +1996,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="27">
         <v>20</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="31" t="s">
         <v>58</v>
       </c>
@@ -2014,20 +2017,20 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -2038,17 +2041,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="27">
         <v>5.5</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="31" t="s">
         <v>61</v>
       </c>
@@ -2059,37 +2062,37 @@
         <v>27</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="27">
         <v>0.5</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="31" t="s">
         <v>63</v>
       </c>
@@ -2100,37 +2103,37 @@
         <v>27</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="31" t="s">
         <v>65</v>
       </c>
@@ -2141,222 +2144,222 @@
         <v>45179</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="27">
         <v>2</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-    </row>
-    <row r="12" spans="1:29" ht="30.75">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+    </row>
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="27">
         <v>1.5</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2371,37 +2374,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="41" t="s">
         <v>200</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="41" t="s">
         <v>202</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>185</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>204</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>206</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>208</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="30.75">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>210</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="30.75">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>212</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="30.75">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>205</v>
       </c>
@@ -2784,7 +2787,7 @@
       </c>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>207</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>209</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>215</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>213</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>214</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>216</v>
       </c>
@@ -2845,36 +2848,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>217</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="41" t="s">
         <v>203</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>218</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>104</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3177,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3194,36 +3197,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>217</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="41" t="s">
         <v>203</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>218</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>104</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3526,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3543,36 +3546,36 @@
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>220</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="44" t="s">
         <v>221</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>222</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>223</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24"/>
@@ -3867,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3884,36 +3887,36 @@
       <selection activeCell="A6" sqref="A6:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="44" t="s">
         <v>225</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="44" t="s">
         <v>226</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>204</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>228</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>229</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>230</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="106.5">
+    <row r="9" spans="1:29" ht="87.6" x14ac:dyDescent="0.4">
       <c r="A9" s="54" t="s">
         <v>232</v>
       </c>
@@ -4254,7 +4257,7 @@
       </c>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -4269,40 +4272,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A51BC-826D-4CD2-AF7B-0BAD5EBE4D6C}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4368,13 +4371,13 @@
       </c>
       <c r="AA1" s="38"/>
       <c r="AB1" s="37" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="AC1" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="44" t="s">
         <v>233</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>204</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>228</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>231</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>235</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>236</v>
       </c>
@@ -4611,7 +4614,7 @@
       <c r="I8" s="50"/>
       <c r="J8" s="48"/>
     </row>
-    <row r="9" spans="1:29" ht="16.5">
+    <row r="9" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="44" t="s">
         <v>237</v>
       </c>
@@ -4623,7 +4626,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -4645,36 +4648,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4746,21 +4749,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="57">
         <v>23.5</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -4769,7 +4772,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="58"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="28" t="s">
         <v>69</v>
       </c>
@@ -4779,16 +4782,16 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="60"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -4803,21 +4806,21 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="27">
         <v>6</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="57">
         <v>2</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="31" t="s">
         <v>72</v>
       </c>
@@ -4826,7 +4829,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="58"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="28" t="s">
         <v>41</v>
       </c>
@@ -4836,14 +4839,14 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -4858,21 +4861,21 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="57">
         <v>17</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="31" t="s">
         <v>75</v>
       </c>
@@ -4881,7 +4884,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="58"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="28" t="s">
         <v>76</v>
       </c>
@@ -4891,14 +4894,14 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
       <c r="Y4" s="36" t="s">
         <v>42</v>
       </c>
@@ -4913,17 +4916,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="31" t="s">
         <v>78</v>
       </c>
@@ -4932,20 +4935,20 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="58"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -4960,17 +4963,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="58"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="31" t="s">
         <v>52</v>
       </c>
@@ -4979,20 +4982,20 @@
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
       <c r="Y6" s="36" t="s">
         <v>55</v>
       </c>
@@ -5007,35 +5010,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="27">
         <v>26</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -5046,291 +5049,291 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="27">
         <v>0.5</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5348,37 +5351,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5450,21 +5453,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="57">
         <v>36.450000000000003</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="58"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="28" t="s">
         <v>28</v>
       </c>
@@ -5493,18 +5496,18 @@
       <c r="R2" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="T2" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="U2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="58"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="58"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -5519,21 +5522,21 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="27">
         <v>4</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="59">
-        <v>27</v>
-      </c>
-      <c r="F3" s="58"/>
+      <c r="E3" s="57">
+        <v>27</v>
+      </c>
+      <c r="F3" s="56"/>
       <c r="G3" s="28" t="s">
         <v>35</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="58"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="28" t="s">
         <v>36</v>
       </c>
@@ -5556,14 +5559,14 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -5578,17 +5581,17 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="27">
         <v>2</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="28" t="s">
         <v>40</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="58"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="28" t="s">
         <v>41</v>
       </c>
@@ -5611,14 +5614,14 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
       <c r="Y4" s="36" t="s">
         <v>42</v>
       </c>
@@ -5633,17 +5636,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="31" t="s">
         <v>89</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="58"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="31" t="s">
         <v>90</v>
       </c>
@@ -5666,14 +5669,14 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -5688,17 +5691,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="27">
         <v>1.5</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="58"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="31" t="s">
         <v>92</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="58"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="31" t="s">
         <v>93</v>
       </c>
@@ -5719,16 +5722,16 @@
       <c r="N6" s="33">
         <v>45223</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
       <c r="Y6" s="36" t="s">
         <v>55</v>
       </c>
@@ -5743,17 +5746,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="31" t="s">
         <v>95</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="58"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="31" t="s">
         <v>96</v>
       </c>
@@ -5774,16 +5777,16 @@
       <c r="N7" s="33">
         <v>45223</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -5794,17 +5797,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="27">
         <v>26.45</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="31" t="s">
         <v>98</v>
       </c>
@@ -5815,37 +5818,37 @@
         <v>27</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="59">
         <v>2</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="31" t="s">
         <v>90</v>
       </c>
@@ -5856,271 +5859,271 @@
         <v>45224</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-    </row>
-    <row r="11" spans="1:29" ht="30.75">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="27">
         <v>6</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-    </row>
-    <row r="12" spans="1:29" ht="45.75">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+    </row>
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="27">
         <v>1</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-    </row>
-    <row r="13" spans="1:29" ht="45.75">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+    </row>
+    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="27">
         <v>7</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="27">
         <v>2.5</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="27">
         <v>1</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="27">
         <v>1</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B9:B10"/>
@@ -6141,37 +6144,37 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6243,21 +6246,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="27">
         <v>1</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="57">
         <v>23.5</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
@@ -6266,7 +6269,7 @@
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="58"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="28" t="s">
         <v>69</v>
       </c>
@@ -6276,16 +6279,16 @@
       <c r="N2" s="29"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="60"/>
+      <c r="Q2" s="58"/>
       <c r="R2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -6300,21 +6303,21 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="27">
         <v>6</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="57">
         <v>2</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="31" t="s">
         <v>72</v>
       </c>
@@ -6323,7 +6326,7 @@
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="58"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="28" t="s">
         <v>41</v>
       </c>
@@ -6333,14 +6336,14 @@
       <c r="N3" s="29"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -6355,21 +6358,21 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="57">
         <v>32</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="31" t="s">
         <v>75</v>
       </c>
@@ -6378,7 +6381,7 @@
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="58"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="28" t="s">
         <v>76</v>
       </c>
@@ -6388,14 +6391,14 @@
       <c r="N4" s="29"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
       <c r="Y4" s="36" t="s">
         <v>42</v>
       </c>
@@ -6410,17 +6413,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="31" t="s">
         <v>107</v>
       </c>
@@ -6429,20 +6432,20 @@
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="58"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="31"/>
       <c r="M5" s="29"/>
       <c r="N5" s="33"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -6457,17 +6460,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="27">
         <v>4.5</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="58"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="31" t="s">
         <v>109</v>
       </c>
@@ -6476,20 +6479,20 @@
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="58"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="31"/>
       <c r="M6" s="29"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
       <c r="Y6" s="36" t="s">
         <v>55</v>
       </c>
@@ -6504,17 +6507,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="27">
         <v>18</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="31" t="s">
         <v>111</v>
       </c>
@@ -6523,20 +6526,20 @@
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="58"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="31"/>
       <c r="M7" s="29"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -6547,17 +6550,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="31" t="s">
         <v>113</v>
       </c>
@@ -6566,37 +6569,37 @@
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="31" t="s">
         <v>115</v>
       </c>
@@ -6605,253 +6608,253 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-    </row>
-    <row r="10" spans="1:29" ht="60.75">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+    </row>
+    <row r="10" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="27">
         <v>18</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>104</v>
       </c>
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6869,36 +6872,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="4"/>
-    <col min="4" max="4" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="7" max="7" width="73.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="4"/>
-    <col min="12" max="12" width="89.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="4"/>
-    <col min="18" max="18" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="30.75">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6970,21 +6973,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>4.3</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="57">
         <v>32.15</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
@@ -6993,7 +6996,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="58"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
@@ -7007,26 +7010,26 @@
         <v>27</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="T2" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="U2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="58"/>
-      <c r="W2" s="60" t="s">
+      <c r="V2" s="56"/>
+      <c r="W2" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="X2" s="58"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="36" t="s">
         <v>31</v>
       </c>
@@ -7041,21 +7044,21 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="57">
         <v>40.15</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
@@ -7068,7 +7071,7 @@
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="3" t="s">
         <v>36</v>
       </c>
@@ -7082,14 +7085,14 @@
         <v>27</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="36" t="s">
         <v>37</v>
       </c>
@@ -7104,17 +7107,17 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="1">
         <v>32</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="3" t="s">
         <v>123</v>
       </c>
@@ -7127,7 +7130,7 @@
       <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="3" t="s">
         <v>124</v>
       </c>
@@ -7141,14 +7144,14 @@
         <v>27</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
       <c r="Y4" s="36" t="s">
         <v>42</v>
       </c>
@@ -7163,17 +7166,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="1">
         <v>1.5</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="3" t="s">
         <v>125</v>
       </c>
@@ -7186,7 +7189,7 @@
       <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="58"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="3" t="s">
         <v>126</v>
       </c>
@@ -7198,14 +7201,14 @@
         <v>27</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
       <c r="Y5" s="36" t="s">
         <v>48</v>
       </c>
@@ -7220,17 +7223,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="60.75">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B6" s="1">
         <v>0.5</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="58"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="3" t="s">
         <v>128</v>
       </c>
@@ -7243,20 +7246,20 @@
       <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
       <c r="Y6" s="36" t="s">
         <v>55</v>
       </c>
@@ -7271,17 +7274,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="3" t="s">
         <v>129</v>
       </c>
@@ -7294,20 +7297,20 @@
       <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="35"/>
@@ -7318,17 +7321,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="3" t="s">
         <v>130</v>
       </c>
@@ -7341,37 +7344,37 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-    </row>
-    <row r="9" spans="1:29" ht="30.75">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="3" t="s">
         <v>132</v>
       </c>
@@ -7384,37 +7387,37 @@
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-    </row>
-    <row r="10" spans="1:29" ht="30.75">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="3" t="s">
         <v>134</v>
       </c>
@@ -7427,234 +7430,234 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-    </row>
-    <row r="11" spans="1:29" ht="30.75">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="1">
         <v>9.5</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-    </row>
-    <row r="12" spans="1:29" ht="45.75">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+    </row>
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="1">
         <v>3.5</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-    </row>
-    <row r="13" spans="1:29" ht="30.75">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+    </row>
+    <row r="13" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7672,36 +7675,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7773,7 +7776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -7832,7 +7835,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>136</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>137</v>
       </c>
@@ -7924,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>138</v>
       </c>
@@ -7945,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>139</v>
       </c>
@@ -7966,7 +7969,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>140</v>
       </c>
@@ -7983,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="60.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>141</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="30.75">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>142</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="30.75">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>143</v>
       </c>
@@ -8007,7 +8010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45.75">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>144</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45.75">
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>145</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="45.75">
+    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -8031,7 +8034,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45.75">
+    <row r="14" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>147</v>
       </c>
@@ -8039,7 +8042,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="45.75">
+    <row r="15" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>148</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45.75">
+    <row r="16" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>149</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>150</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>67</v>
       </c>
@@ -8071,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>64</v>
       </c>
@@ -8079,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30.75">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>151</v>
       </c>
@@ -8087,8 +8090,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2"/>
-    <row r="22" spans="1:2"/>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8105,40 +8108,40 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="10" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="10"/>
-    <col min="28" max="28" width="14.28515625" style="10" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" style="10" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.88671875" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="10"/>
+    <col min="28" max="28" width="14.33203125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="12.88671875" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>122</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>156</v>
       </c>
@@ -8423,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>158</v>
       </c>
@@ -8459,7 +8462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>159</v>
       </c>
@@ -8491,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>161</v>
       </c>
@@ -8514,7 +8517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="30.75">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>163</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45.75">
+    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>165</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="30.75">
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>167</v>
       </c>
@@ -8583,7 +8586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="30.75">
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>169</v>
       </c>
@@ -8606,7 +8609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>150</v>
       </c>
@@ -8614,11 +8617,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8635,36 +8638,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8736,7 +8739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>171</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>174</v>
       </c>
@@ -8883,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>176</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>178</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>180</v>
       </c>
@@ -8976,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>150</v>
       </c>
@@ -9000,36 +9003,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="73.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="89.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
-    <col min="18" max="18" width="65.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="41" t="s">
         <v>182</v>
       </c>
@@ -9197,7 +9200,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="41" t="s">
         <v>185</v>
       </c>
@@ -9233,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>186</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>188</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>190</v>
       </c>
@@ -9328,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>192</v>
       </c>
@@ -9348,7 +9351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="30.75">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>194</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="30.75">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>196</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="30.75">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>104</v>
       </c>
@@ -9404,7 +9407,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>199</v>
       </c>
@@ -9418,18 +9421,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9610,13 +9613,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A593B130-113F-4160-ACCA-A0F8D24B6ADC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A593B130-113F-4160-ACCA-A0F8D24B6ADC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/ICS.xlsx
+++ b/dataSources/WSR/ICS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BEC273-BFB9-4261-A0A9-FDDB1284B516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9E6686-B957-405B-B503-DEF04F68CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="26 Dec 2023" sheetId="16" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="17" r:id="rId14"/>
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
+    <sheet name="15 Jan 2024" sheetId="19" r:id="rId16"/>
+    <sheet name="22 Jan 2024" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="256">
   <si>
     <t>Task Name</t>
   </si>
@@ -788,7 +790,7 @@
         <sz val="11"/>
         <color rgb="FF242424"/>
         <rFont val="Segoe UI"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>izing and backlog refinement</t>
     </r>
@@ -834,13 +836,75 @@
   </si>
   <si>
     <t>Project Metrics</t>
+  </si>
+  <si>
+    <t>Sprint review and retrsopective meeting</t>
+  </si>
+  <si>
+    <t>Sprint review and retrospective meeting</t>
+  </si>
+  <si>
+    <t>Sprint planning</t>
+  </si>
+  <si>
+    <t>Sanity Testing</t>
+  </si>
+  <si>
+    <t>HICA-3111 Test cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3244 Test Scenarios Execution</t>
+  </si>
+  <si>
+    <t>HICA-3244 Test Cases Execution</t>
+  </si>
+  <si>
+    <t>Prepared QA documents for SDLC#27027</t>
+  </si>
+  <si>
+    <t>Worked on "Audit summary report" with ransfer/dilution on same date and different date(Masis reported issue)</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sprint Review and Retrospective meeting</t>
+    </r>
+  </si>
+  <si>
+    <t>HICA-3225 Test Scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-2677  Test cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-2677  Test cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-2677  Test cases Re-Execution(Child Fund changes in Maintaince screen)</t>
+  </si>
+  <si>
+    <t>HICA-3011 Test cases Execution</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>1/29/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,12 +916,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -898,7 +964,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -930,18 +996,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -963,7 +1032,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -975,7 +1044,31 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1149,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1311,6 +1404,59 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1602,36 +1748,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -1766,7 +1912,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
@@ -1827,7 +1973,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
@@ -1884,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>44</v>
       </c>
@@ -1941,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>50</v>
       </c>
@@ -1996,7 +2142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>57</v>
       </c>
@@ -2041,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>60</v>
       </c>
@@ -2082,7 +2228,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>62</v>
       </c>
@@ -2123,7 +2269,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>64</v>
       </c>
@@ -2164,7 +2310,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>67</v>
       </c>
@@ -2199,7 +2345,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>68</v>
       </c>
@@ -2234,7 +2380,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="56"/>
@@ -2265,7 +2411,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="56"/>
@@ -2296,7 +2442,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="56"/>
@@ -2327,7 +2473,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -2358,8 +2504,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2374,37 +2520,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +2622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -2531,7 +2677,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A3" s="41" t="s">
         <v>200</v>
       </c>
@@ -2574,7 +2720,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="41" t="s">
         <v>202</v>
       </c>
@@ -2614,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>185</v>
       </c>
@@ -2647,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>204</v>
       </c>
@@ -2680,7 +2826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>206</v>
       </c>
@@ -2709,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>208</v>
       </c>
@@ -2729,7 +2875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
         <v>210</v>
       </c>
@@ -2749,7 +2895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
         <v>212</v>
       </c>
@@ -2769,7 +2915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
         <v>205</v>
       </c>
@@ -2787,7 +2933,7 @@
       </c>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
         <v>207</v>
       </c>
@@ -2795,7 +2941,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>209</v>
       </c>
@@ -2803,7 +2949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>215</v>
       </c>
@@ -2811,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>213</v>
       </c>
@@ -2819,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>214</v>
       </c>
@@ -2827,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>216</v>
       </c>
@@ -2848,36 +2994,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2949,7 +3095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -3000,7 +3146,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>217</v>
       </c>
@@ -3047,7 +3193,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="41" t="s">
         <v>203</v>
       </c>
@@ -3091,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>218</v>
       </c>
@@ -3124,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>104</v>
       </c>
@@ -3157,7 +3303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3180,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3197,36 +3343,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -3349,7 +3495,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>217</v>
       </c>
@@ -3396,7 +3542,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="41" t="s">
         <v>203</v>
       </c>
@@ -3440,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>218</v>
       </c>
@@ -3473,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>104</v>
       </c>
@@ -3506,7 +3652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3529,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3546,36 +3692,36 @@
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3647,7 +3793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -3698,7 +3844,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>220</v>
       </c>
@@ -3745,7 +3891,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="44" t="s">
         <v>221</v>
       </c>
@@ -3785,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>222</v>
       </c>
@@ -3818,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>223</v>
       </c>
@@ -3851,7 +3997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24"/>
@@ -3870,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3887,36 +4033,36 @@
       <selection activeCell="A6" sqref="A6:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3988,7 +4134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
@@ -4043,7 +4189,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="44" t="s">
         <v>225</v>
       </c>
@@ -4088,7 +4234,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="44" t="s">
         <v>226</v>
       </c>
@@ -4124,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>204</v>
       </c>
@@ -4157,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>228</v>
       </c>
@@ -4190,7 +4336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>229</v>
       </c>
@@ -4219,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>230</v>
       </c>
@@ -4239,7 +4385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="87.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" ht="73.5" x14ac:dyDescent="0.45">
       <c r="A9" s="54" t="s">
         <v>232</v>
       </c>
@@ -4257,7 +4403,7 @@
       </c>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -4272,40 +4418,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A51BC-826D-4CD2-AF7B-0BAD5EBE4D6C}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
@@ -4432,7 +4578,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="44" t="s">
         <v>233</v>
       </c>
@@ -4473,7 +4619,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>204</v>
       </c>
@@ -4511,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>228</v>
       </c>
@@ -4544,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>231</v>
       </c>
@@ -4577,7 +4723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>235</v>
       </c>
@@ -4602,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>236</v>
       </c>
@@ -4614,7 +4760,7 @@
       <c r="I8" s="50"/>
       <c r="J8" s="48"/>
     </row>
-    <row r="9" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="44" t="s">
         <v>237</v>
       </c>
@@ -4626,11 +4772,1189 @@
       <c r="I9" s="48"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D60222-B82E-4DA2-867E-5463152C2AC0}">
+  <dimension ref="A1:AC13"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC1" s="64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="66">
+        <v>1</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="70">
+        <v>25.5</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="M2" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="65">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="79">
+        <v>2</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="65">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="79">
+        <v>1</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="65">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="79">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="79">
+        <v>4</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+    </row>
+    <row r="9" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="79">
+        <v>4</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+    </row>
+    <row r="10" spans="1:29" ht="88.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="79">
+        <v>3</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="74"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="79">
+        <v>3</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="79">
+        <v>2</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="79">
+        <v>1</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F86D176-EE66-4D11-9285-434E954DA24B}">
+  <dimension ref="A1:AC13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC1" s="64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="70">
+        <v>28.5</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="65">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="65">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="82">
+        <v>1</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="65">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="65">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="82">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="82">
+        <v>11</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="82">
+        <v>5.5</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="80"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="65">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="82">
+        <v>6</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+    </row>
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4648,36 +5972,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4749,7 +6073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -4806,7 +6130,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>71</v>
       </c>
@@ -4861,7 +6185,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>73</v>
       </c>
@@ -4916,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>77</v>
       </c>
@@ -4963,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>79</v>
       </c>
@@ -5010,7 +6334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>80</v>
       </c>
@@ -5049,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>81</v>
       </c>
@@ -5084,7 +6408,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="56"/>
@@ -5115,7 +6439,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="56"/>
@@ -5146,7 +6470,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="56"/>
@@ -5177,7 +6501,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="56"/>
@@ -5208,7 +6532,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="56"/>
@@ -5239,7 +6563,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="56"/>
@@ -5270,7 +6594,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="56"/>
@@ -5301,7 +6625,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -5332,8 +6656,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5351,37 +6675,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5453,7 +6777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -5522,7 +6846,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>35</v>
       </c>
@@ -5581,7 +6905,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>87</v>
       </c>
@@ -5636,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>88</v>
       </c>
@@ -5691,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>91</v>
       </c>
@@ -5746,7 +7070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>94</v>
       </c>
@@ -5797,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>97</v>
       </c>
@@ -5838,7 +7162,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>99</v>
       </c>
@@ -5879,7 +7203,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>100</v>
       </c>
@@ -5912,7 +7236,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>101</v>
       </c>
@@ -5947,7 +7271,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>102</v>
       </c>
@@ -5982,7 +7306,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>103</v>
       </c>
@@ -6017,7 +7341,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>104</v>
       </c>
@@ -6052,7 +7376,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>64</v>
       </c>
@@ -6087,7 +7411,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>67</v>
       </c>
@@ -6122,8 +7446,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B9:B10"/>
@@ -6144,37 +7468,37 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6246,7 +7570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -6303,7 +7627,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>105</v>
       </c>
@@ -6358,7 +7682,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>106</v>
       </c>
@@ -6413,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>87</v>
       </c>
@@ -6460,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>108</v>
       </c>
@@ -6507,7 +7831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>110</v>
       </c>
@@ -6550,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>112</v>
       </c>
@@ -6589,7 +7913,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>114</v>
       </c>
@@ -6628,7 +7952,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>116</v>
       </c>
@@ -6663,7 +7987,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>104</v>
       </c>
@@ -6698,7 +8022,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="56"/>
@@ -6729,7 +8053,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="56"/>
@@ -6760,7 +8084,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="56"/>
@@ -6791,7 +8115,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="56"/>
@@ -6822,7 +8146,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="56"/>
@@ -6853,8 +8177,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6872,36 +8196,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6973,7 +8297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -7044,7 +8368,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
@@ -7107,7 +8431,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -7166,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -7223,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -7274,7 +8598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -7321,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -7364,7 +8688,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
@@ -7407,7 +8731,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -7450,7 +8774,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -7485,7 +8809,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
@@ -7520,7 +8844,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -7555,7 +8879,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -7590,7 +8914,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
@@ -7625,7 +8949,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -7656,8 +8980,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7675,36 +8999,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7776,7 +9100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -7835,7 +9159,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>136</v>
       </c>
@@ -7891,7 +9215,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>137</v>
       </c>
@@ -7927,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>138</v>
       </c>
@@ -7948,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>139</v>
       </c>
@@ -7969,7 +9293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>140</v>
       </c>
@@ -7986,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>141</v>
       </c>
@@ -7994,7 +9318,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>142</v>
       </c>
@@ -8002,7 +9326,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>143</v>
       </c>
@@ -8010,7 +9334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>144</v>
       </c>
@@ -8018,7 +9342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>145</v>
       </c>
@@ -8026,7 +9350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -8034,7 +9358,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>147</v>
       </c>
@@ -8042,7 +9366,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>148</v>
       </c>
@@ -8050,7 +9374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>149</v>
       </c>
@@ -8058,7 +9382,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>150</v>
       </c>
@@ -8066,7 +9390,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>67</v>
       </c>
@@ -8074,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>64</v>
       </c>
@@ -8082,7 +9406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>151</v>
       </c>
@@ -8090,8 +9414,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:2" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8108,40 +9432,40 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.88671875" style="10" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="10"/>
-    <col min="28" max="28" width="14.33203125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="12.88671875" style="10" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.90625" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" style="10"/>
+    <col min="28" max="28" width="14.36328125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="12.90625" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8213,7 +9537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -8286,7 +9610,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>122</v>
       </c>
@@ -8341,7 +9665,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -8390,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>156</v>
       </c>
@@ -8426,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>158</v>
       </c>
@@ -8462,7 +9786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>159</v>
       </c>
@@ -8494,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>161</v>
       </c>
@@ -8517,7 +9841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>163</v>
       </c>
@@ -8540,7 +9864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>165</v>
       </c>
@@ -8563,7 +9887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>167</v>
       </c>
@@ -8586,7 +9910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>169</v>
       </c>
@@ -8609,7 +9933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>150</v>
       </c>
@@ -8617,11 +9941,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8638,36 +9962,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8739,7 +10063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -8790,7 +10114,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>171</v>
       </c>
@@ -8842,7 +10166,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>174</v>
       </c>
@@ -8886,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>176</v>
       </c>
@@ -8919,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>178</v>
       </c>
@@ -8952,7 +10276,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>180</v>
       </c>
@@ -8979,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>150</v>
       </c>
@@ -9003,36 +10327,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9104,7 +10428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -9159,7 +10483,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="41" t="s">
         <v>182</v>
       </c>
@@ -9200,7 +10524,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A4" s="41" t="s">
         <v>185</v>
       </c>
@@ -9236,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>186</v>
       </c>
@@ -9269,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>188</v>
       </c>
@@ -9302,7 +10626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>190</v>
       </c>
@@ -9331,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>192</v>
       </c>
@@ -9351,7 +10675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>194</v>
       </c>
@@ -9371,7 +10695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>196</v>
       </c>
@@ -9391,7 +10715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>104</v>
       </c>
@@ -9407,7 +10731,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>199</v>
       </c>
@@ -9421,21 +10745,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -9612,24 +10921,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A593B130-113F-4160-ACCA-A0F8D24B6ADC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9646,4 +10953,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/ICS.xlsx
+++ b/dataSources/WSR/ICS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9E6686-B957-405B-B503-DEF04F68CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FB723-5629-43AD-819C-8C2C2C92C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -1400,12 +1400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1457,6 +1451,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1748,36 +1748,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>44</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>50</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>57</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>60</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>62</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>64</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>67</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>68</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="56"/>
@@ -2411,7 +2411,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="56"/>
@@ -2442,7 +2442,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="56"/>
@@ -2473,7 +2473,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -2504,8 +2504,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2520,37 +2520,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="41" t="s">
         <v>200</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="41" t="s">
         <v>202</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>185</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>204</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>206</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>208</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>210</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>212</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>205</v>
       </c>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>207</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>209</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>215</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>213</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>214</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>216</v>
       </c>
@@ -2994,36 +2994,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>217</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="41" t="s">
         <v>203</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>218</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>104</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3343,36 +3343,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>217</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="41" t="s">
         <v>203</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>218</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>104</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3688,40 +3688,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73F7D88-B585-4E3C-95BF-2E151A5BB3AF}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3787,13 +3787,13 @@
       </c>
       <c r="AA1" s="38"/>
       <c r="AB1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC1" s="62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>220</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="44" t="s">
         <v>221</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>222</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>223</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24"/>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -4029,40 +4029,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C53DED1-CA0E-466B-88CE-A15B7B000C07}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B9"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4128,13 +4128,13 @@
       </c>
       <c r="AA1" s="38"/>
       <c r="AB1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC1" s="62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="44" t="s">
         <v>225</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="44" t="s">
         <v>226</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>204</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>228</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>229</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>230</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="73.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" ht="87.6" x14ac:dyDescent="0.4">
       <c r="A9" s="54" t="s">
         <v>232</v>
       </c>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -4422,36 +4422,36 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="44" t="s">
         <v>233</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>204</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>228</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>231</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>235</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>236</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="I8" s="50"/>
       <c r="J8" s="48"/>
     </row>
-    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="44" t="s">
         <v>237</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -4791,598 +4791,598 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61" t="s">
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="64" t="s">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="Z1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="63"/>
+      <c r="AA1" s="61"/>
       <c r="AB1" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="64">
         <v>1</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="68">
         <v>25.5</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="71" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="73" t="s">
+      <c r="H2" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="M2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="76" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="77" t="s">
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="65">
+      <c r="Z2" s="63">
         <v>24</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="77" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="65">
+      <c r="AC2" s="63">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="77">
         <v>2</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="72" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="74" t="s">
+      <c r="H3" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="77" t="s">
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="77" t="s">
+      <c r="Z3" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="65">
+      <c r="AC3" s="63">
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:29" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="77">
         <v>1</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="72" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="77" t="s">
+      <c r="H4" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="Z4" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="77" t="s">
+      <c r="Z4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="78" t="s">
+      <c r="AC4" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="77">
         <v>0.5</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="71" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="H5" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="77" t="s">
+      <c r="H5" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="77" t="s">
+      <c r="Z5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
+      <c r="AC5" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="64">
         <v>0.5</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="H6" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="77" t="s">
+      <c r="H6" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Z6" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="77" t="s">
+      <c r="Z6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="AC6" s="65">
+      <c r="AC6" s="63">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="78" t="s">
+    <row r="7" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="77">
         <v>3.5</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="72" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="77" t="s">
+      <c r="H7" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="AC7" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="78" t="s">
+      <c r="AC7" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="77">
         <v>4</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="72" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-    </row>
-    <row r="9" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="78" t="s">
+      <c r="H8" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+    </row>
+    <row r="9" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="77">
         <v>4</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="72" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="H9" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-    </row>
-    <row r="10" spans="1:29" ht="88.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="78" t="s">
+      <c r="H9" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+    </row>
+    <row r="10" spans="1:29" ht="88.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="77">
         <v>3</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="72" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A11" s="78" t="s">
+      <c r="H10" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="72"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="77">
         <v>3</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="77">
         <v>2</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A13" s="78" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="79">
+      <c r="B13" s="77">
         <v>1</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5393,568 +5393,568 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F86D176-EE66-4D11-9285-434E954DA24B}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61" t="s">
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="64" t="s">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="Z1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="63"/>
+      <c r="AA1" s="61"/>
       <c r="AB1" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:29" ht="118.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="79">
         <v>1.5</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="68">
         <v>28.5</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="71" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="73" t="s">
+      <c r="H2" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="M2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="76" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="77" t="s">
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="65">
+      <c r="Z2" s="63">
         <v>6</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="77" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="65">
+      <c r="AC2" s="63">
         <v>619</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="80">
         <v>1</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="71" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="74" t="s">
+      <c r="H3" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="77" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="65">
+      <c r="Z3" s="63">
         <v>37</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="77" t="s">
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="65">
+      <c r="AC3" s="63">
         <v>624</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="80">
         <v>3</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="71" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="77" t="s">
+      <c r="H4" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="Z4" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="77" t="s">
+      <c r="Z4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="78" t="s">
+      <c r="AC4" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="80">
         <v>11</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="72" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="H5" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="77" t="s">
+      <c r="H5" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="77" t="s">
+      <c r="Z5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="83" t="s">
+      <c r="AC5" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="80">
         <v>5.5</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="77" t="s">
+      <c r="J6" s="78"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Z6" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="77" t="s">
+      <c r="Z6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="AC6" s="65">
+      <c r="AC6" s="63">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="78" t="s">
+    <row r="7" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="80">
         <v>6</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="77" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="AC7" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="81" t="s">
+      <c r="AC7" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="79">
         <v>0.5</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-    </row>
-    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-    </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+    </row>
+    <row r="10" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5972,36 +5972,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>71</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>73</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>77</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>79</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>80</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>81</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="56"/>
@@ -6439,7 +6439,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="56"/>
@@ -6470,7 +6470,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="56"/>
@@ -6501,7 +6501,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="56"/>
@@ -6532,7 +6532,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="56"/>
@@ -6563,7 +6563,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="56"/>
@@ -6594,7 +6594,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="56"/>
@@ -6625,7 +6625,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -6656,8 +6656,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6675,37 +6675,37 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>35</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>87</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>88</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>91</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>94</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>97</v>
       </c>
@@ -7162,11 +7162,11 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="82">
         <v>2</v>
       </c>
       <c r="C9" s="56"/>
@@ -7203,11 +7203,11 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
       <c r="E10" s="57"/>
@@ -7236,7 +7236,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>101</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>102</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>103</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>104</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>64</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>67</v>
       </c>
@@ -7446,8 +7446,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B9:B10"/>
@@ -7468,37 +7468,37 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>105</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>106</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>87</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>108</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>110</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>112</v>
       </c>
@@ -7913,7 +7913,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>114</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>116</v>
       </c>
@@ -7987,7 +7987,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>104</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="56"/>
@@ -8053,7 +8053,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="56"/>
@@ -8084,7 +8084,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="56"/>
@@ -8115,7 +8115,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="56"/>
@@ -8146,7 +8146,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="56"/>
@@ -8177,8 +8177,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8196,36 +8196,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="4"/>
-    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="4"/>
-    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="4"/>
-    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
+    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -8688,7 +8688,7 @@
       <c r="AB8" s="56"/>
       <c r="AC8" s="56"/>
     </row>
-    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
@@ -8731,7 +8731,7 @@
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
     </row>
-    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -8774,7 +8774,7 @@
       <c r="AB10" s="56"/>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -8809,7 +8809,7 @@
       <c r="AB11" s="56"/>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="AB12" s="56"/>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -8879,7 +8879,7 @@
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -8914,7 +8914,7 @@
       <c r="AB14" s="56"/>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
@@ -8949,7 +8949,7 @@
       <c r="AB15" s="56"/>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -8980,8 +8980,8 @@
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8999,36 +8999,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>136</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>137</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>138</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>139</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>140</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>141</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>142</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>143</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>144</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>145</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>147</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>148</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>149</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>150</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>67</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>64</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>151</v>
       </c>
@@ -9414,8 +9414,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:2" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9432,40 +9432,40 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.90625" style="10" customWidth="1"/>
-    <col min="27" max="27" width="8.90625" style="10"/>
-    <col min="28" max="28" width="14.36328125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="12.90625" style="10" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.88671875" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="10"/>
+    <col min="28" max="28" width="14.33203125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="12.88671875" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>122</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>156</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>158</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>159</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>161</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>163</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>165</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>167</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>169</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>150</v>
       </c>
@@ -9941,11 +9941,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9962,36 +9962,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>171</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>174</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>176</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>178</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>180</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>150</v>
       </c>
@@ -10327,36 +10327,36 @@
       <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="10"/>
-    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="10"/>
-    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="10"/>
-    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="10"/>
-    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="10"/>
+    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10"/>
+    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="10"/>
+    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="41" t="s">
         <v>182</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A4" s="41" t="s">
         <v>185</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>186</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>188</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>190</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>192</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>194</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>196</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>104</v>
       </c>
@@ -10731,7 +10731,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>199</v>
       </c>
@@ -10745,6 +10745,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -10921,22 +10936,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A593B130-113F-4160-ACCA-A0F8D24B6ADC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10953,21 +10970,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/ICS.xlsx
+++ b/dataSources/WSR/ICS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12813626-6400-417E-8149-303971C2A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1829A5-DC1D-46B7-8FCC-BD72F987036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -1717,7 +1717,7 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
@@ -4392,7 +4392,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4761,7 +4761,7 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4896,7 +4896,7 @@
         <v>244</v>
       </c>
       <c r="AC2" s="59">
-        <v>613</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
@@ -5365,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F86D176-EE66-4D11-9285-434E954DA24B}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5501,7 +5501,7 @@
         <v>244</v>
       </c>
       <c r="AC2" s="59">
-        <v>619</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
@@ -10716,9 +10716,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10899,19 +10902,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10936,9 +10935,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dataSources/WSR/ICS.xlsx
+++ b/dataSources/WSR/ICS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceslimited01-my.sharepoint.com/personal/meenakshi_kasi_cesltd_com/Documents/Oaktree/WSR_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1829A5-DC1D-46B7-8FCC-BD72F987036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{5B1829A5-DC1D-46B7-8FCC-BD72F987036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{408B5EAD-2F08-4A66-8304-A51746DE277B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
     <sheet name="15 Jan 2024" sheetId="19" r:id="rId16"/>
     <sheet name="22 Jan 2024" sheetId="20" r:id="rId17"/>
+    <sheet name="29 Jan 2024" sheetId="24" r:id="rId18"/>
+    <sheet name="5 Feb 2024" sheetId="25" r:id="rId19"/>
+    <sheet name="12 Feb 2024" sheetId="26" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="308">
   <si>
     <t>Task Name</t>
   </si>
@@ -880,6 +883,213 @@
   </si>
   <si>
     <t>Automation coverage</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sizing and Backlog Refinement</t>
+    </r>
+  </si>
+  <si>
+    <t>HICA-3355</t>
+  </si>
+  <si>
+    <t>Add Incentive Income Total column in the excel export when more than 1 fund is selected for the Incentive Signoff report</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Sibin babu</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Weekly business meeting</t>
+  </si>
+  <si>
+    <t>HICA-3011 Execution</t>
+  </si>
+  <si>
+    <t>HICA-3355 Test Scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-3355  Test cases Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3355  Test cases Preparation</t>
+  </si>
+  <si>
+    <t>HICA-3355 Test cases Execution</t>
+  </si>
+  <si>
+    <t>UAT Sanity Execution(Pre and Post code checkin)</t>
+  </si>
+  <si>
+    <t>HICA-3262 Test scenarios Preparation</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Sprint Review and Retrospective meeting</t>
+    </r>
+  </si>
+  <si>
+    <t>HICA-3414</t>
+  </si>
+  <si>
+    <t>Getting loading screen when trying to download excel in the transaction report if "Running total for fund" column is not selected from the column chooser</t>
+  </si>
+  <si>
+    <t>sibin babu</t>
+  </si>
+  <si>
+    <t>Sizing and backlog refinement</t>
+  </si>
+  <si>
+    <t>HICA-3262 Testcases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3292 Test Scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-3292 Test Cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3292 Test Cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3309  Test Scenarios preparation</t>
+  </si>
+  <si>
+    <t>2/13/2024</t>
+  </si>
+  <si>
+    <t>HICA-3309  Test Cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3309  Test Scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-3309  Test Cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3309  Test Cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3309  Test Cases Execution</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Sprint sizing session</t>
+    </r>
+  </si>
+  <si>
+    <t>HICA-3223</t>
+  </si>
+  <si>
+    <t>Verified status not getting updated in Modified Records under Audit summary report whenever new grant created and approved post modification</t>
+  </si>
+  <si>
+    <t>Sprint Retrospective</t>
+  </si>
+  <si>
+    <t>Sprint Retrospective call</t>
+  </si>
+  <si>
+    <t>HICA-3430</t>
+  </si>
+  <si>
+    <t>The dollar sign ($) should be positioned at the far right, while the value should be placed at the far left in the Excel Incentive Signoff report</t>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>HICA-3262 Testcase Execution</t>
+  </si>
+  <si>
+    <t>HICA-3262 Execution</t>
+  </si>
+  <si>
+    <t>HICA-3416 Test Scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-2677 Execution</t>
+  </si>
+  <si>
+    <t>HICA-3416 Test Cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3416 Scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-3431 Test Cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3416 Test Case preparation</t>
+  </si>
+  <si>
+    <t>HICA-3416  Test Execution</t>
+  </si>
+  <si>
+    <t>HICA-3389 Test Scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-3431  Test Scenarios preparation</t>
+  </si>
+  <si>
+    <t>HICA-3389 Test Cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3431  Test Cases preparation</t>
+  </si>
+  <si>
+    <t>HICA-3424 Test Cases Execution</t>
+  </si>
+  <si>
+    <t>HICA-3431 Test Execution</t>
+  </si>
+  <si>
+    <t>HICA-3389 Test Scenario preparation</t>
+  </si>
+  <si>
+    <t>HICA-3389 Test case preparation</t>
+  </si>
+  <si>
+    <t>HICA-3424- Test case preparation</t>
+  </si>
+  <si>
+    <t>HICA-3424  Test Scenarios preparation</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1430,6 +1640,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1718,39 +1940,39 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +2044,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
@@ -1885,7 +2107,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>27</v>
       </c>
@@ -1946,7 +2168,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>31</v>
       </c>
@@ -2003,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
@@ -2060,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
@@ -2115,7 +2337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>43</v>
       </c>
@@ -2160,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
@@ -2201,7 +2423,7 @@
       <c r="AB8" s="54"/>
       <c r="AC8" s="54"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>47</v>
       </c>
@@ -2242,7 +2464,7 @@
       <c r="AB9" s="54"/>
       <c r="AC9" s="54"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>49</v>
       </c>
@@ -2283,7 +2505,7 @@
       <c r="AB10" s="54"/>
       <c r="AC10" s="54"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>52</v>
       </c>
@@ -2318,7 +2540,7 @@
       <c r="AB11" s="54"/>
       <c r="AC11" s="54"/>
     </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>53</v>
       </c>
@@ -2353,7 +2575,7 @@
       <c r="AB12" s="54"/>
       <c r="AC12" s="54"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="54"/>
@@ -2384,7 +2606,7 @@
       <c r="AB13" s="54"/>
       <c r="AC13" s="54"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="54"/>
@@ -2415,7 +2637,7 @@
       <c r="AB14" s="54"/>
       <c r="AC14" s="54"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="54"/>
@@ -2446,7 +2668,7 @@
       <c r="AB15" s="54"/>
       <c r="AC15" s="54"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="54"/>
       <c r="B16" s="55"/>
       <c r="C16" s="54"/>
@@ -2477,8 +2699,8 @@
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2493,37 +2715,37 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +2817,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
@@ -2650,7 +2872,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A3" s="39" t="s">
         <v>185</v>
       </c>
@@ -2693,7 +2915,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>187</v>
       </c>
@@ -2733,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>170</v>
       </c>
@@ -2766,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>189</v>
       </c>
@@ -2799,7 +3021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
         <v>191</v>
       </c>
@@ -2828,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
         <v>193</v>
       </c>
@@ -2848,7 +3070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="42" t="s">
         <v>195</v>
       </c>
@@ -2868,7 +3090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>197</v>
       </c>
@@ -2888,7 +3110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>190</v>
       </c>
@@ -2906,7 +3128,7 @@
       </c>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>192</v>
       </c>
@@ -2914,7 +3136,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="42" t="s">
         <v>194</v>
       </c>
@@ -2922,7 +3144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="42" t="s">
         <v>200</v>
       </c>
@@ -2930,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="42" t="s">
         <v>198</v>
       </c>
@@ -2938,7 +3160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
         <v>199</v>
       </c>
@@ -2946,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="42" t="s">
         <v>201</v>
       </c>
@@ -2967,36 +3189,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3290,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
@@ -3119,7 +3341,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>202</v>
       </c>
@@ -3166,7 +3388,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>188</v>
       </c>
@@ -3210,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>203</v>
       </c>
@@ -3243,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>89</v>
       </c>
@@ -3276,7 +3498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3299,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3316,36 +3538,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3639,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
@@ -3468,7 +3690,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>202</v>
       </c>
@@ -3515,7 +3737,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>188</v>
       </c>
@@ -3559,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>203</v>
       </c>
@@ -3592,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>89</v>
       </c>
@@ -3625,7 +3847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24" t="s">
@@ -3648,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -3665,36 +3887,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3988,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
@@ -3817,7 +4039,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>205</v>
       </c>
@@ -3864,7 +4086,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="42" t="s">
         <v>206</v>
       </c>
@@ -3904,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>207</v>
       </c>
@@ -3937,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
         <v>208</v>
       </c>
@@ -3970,7 +4192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="24"/>
@@ -3989,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
@@ -4006,36 +4228,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4107,7 +4329,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
@@ -4162,7 +4384,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>210</v>
       </c>
@@ -4207,7 +4429,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="42" t="s">
         <v>211</v>
       </c>
@@ -4243,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>189</v>
       </c>
@@ -4276,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>213</v>
       </c>
@@ -4309,7 +4531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
         <v>214</v>
       </c>
@@ -4338,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
         <v>215</v>
       </c>
@@ -4358,7 +4580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="87.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" ht="73.5" x14ac:dyDescent="0.45">
       <c r="A9" s="52" t="s">
         <v>217</v>
       </c>
@@ -4376,7 +4598,7 @@
       </c>
       <c r="J9" s="44"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -4395,36 +4617,36 @@
       <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4496,7 +4718,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
@@ -4551,7 +4773,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>218</v>
       </c>
@@ -4592,7 +4814,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>189</v>
       </c>
@@ -4630,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>213</v>
       </c>
@@ -4663,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
         <v>216</v>
       </c>
@@ -4696,7 +4918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
         <v>220</v>
       </c>
@@ -4721,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
         <v>221</v>
       </c>
@@ -4733,7 +4955,7 @@
       <c r="I8" s="48"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="42" t="s">
         <v>222</v>
       </c>
@@ -4745,7 +4967,7 @@
       <c r="I9" s="46"/>
       <c r="J9" s="44"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -4764,9 +4986,9 @@
       <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -4842,7 +5064,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="99.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="59" t="s">
         <v>21</v>
       </c>
@@ -4899,7 +5121,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="71" t="s">
         <v>223</v>
       </c>
@@ -4950,7 +5172,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
         <v>225</v>
       </c>
@@ -4997,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="71" t="s">
         <v>189</v>
       </c>
@@ -5044,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="59" t="s">
         <v>213</v>
       </c>
@@ -5091,7 +5313,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
         <v>226</v>
       </c>
@@ -5134,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="71" t="s">
         <v>227</v>
       </c>
@@ -5173,7 +5395,7 @@
       <c r="AB8" s="62"/>
       <c r="AC8" s="62"/>
     </row>
-    <row r="9" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="71" t="s">
         <v>228</v>
       </c>
@@ -5212,7 +5434,7 @@
       <c r="AB9" s="62"/>
       <c r="AC9" s="62"/>
     </row>
-    <row r="10" spans="1:29" ht="88.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" ht="88.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="71" t="s">
         <v>229</v>
       </c>
@@ -5251,7 +5473,7 @@
       <c r="AB10" s="62"/>
       <c r="AC10" s="62"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
         <v>231</v>
       </c>
@@ -5286,7 +5508,7 @@
       <c r="AB11" s="62"/>
       <c r="AC11" s="62"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="71" t="s">
         <v>230</v>
       </c>
@@ -5321,7 +5543,7 @@
       <c r="AB12" s="62"/>
       <c r="AC12" s="62"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
         <v>222</v>
       </c>
@@ -5365,13 +5587,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F86D176-EE66-4D11-9285-434E954DA24B}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -5447,7 +5669,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="118.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="59" t="s">
         <v>21</v>
       </c>
@@ -5504,7 +5726,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="71" t="s">
         <v>218</v>
       </c>
@@ -5555,7 +5777,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
         <v>233</v>
       </c>
@@ -5602,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="71" t="s">
         <v>234</v>
       </c>
@@ -5649,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="76" t="s">
         <v>236</v>
       </c>
@@ -5698,7 +5920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
         <v>237</v>
       </c>
@@ -5737,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="74" t="s">
         <v>184</v>
       </c>
@@ -5772,7 +5994,7 @@
       <c r="AB8" s="62"/>
       <c r="AC8" s="62"/>
     </row>
-    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="71"/>
       <c r="B9" s="72"/>
       <c r="C9" s="62"/>
@@ -5803,7 +6025,7 @@
       <c r="AB9" s="62"/>
       <c r="AC9" s="62"/>
     </row>
-    <row r="10" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="71"/>
       <c r="B10" s="72"/>
       <c r="C10" s="62"/>
@@ -5834,7 +6056,7 @@
       <c r="AB10" s="62"/>
       <c r="AC10" s="62"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="71"/>
       <c r="B11" s="72"/>
       <c r="C11" s="62"/>
@@ -5865,7 +6087,7 @@
       <c r="AB11" s="62"/>
       <c r="AC11" s="62"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
       <c r="C12" s="62"/>
@@ -5896,7 +6118,7 @@
       <c r="AB12" s="62"/>
       <c r="AC12" s="62"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="71"/>
       <c r="B13" s="72"/>
       <c r="C13" s="62"/>
@@ -5932,6 +6154,1240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54255C61-11E0-42CE-B87E-652CDA6B837A}">
+  <dimension ref="A1:AC13"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="248" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="64">
+        <v>33</v>
+      </c>
+      <c r="F2" s="62"/>
+      <c r="G2" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="R2" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="S2" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="T2" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="U2" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="V2" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="W2" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="X2" s="62"/>
+      <c r="Y2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z2" s="59">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="61"/>
+      <c r="AB2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC2" s="59">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="72">
+        <v>2</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z3" s="59">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="61"/>
+      <c r="AB3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC3" s="59">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="72">
+        <v>1</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="61"/>
+      <c r="AB4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="61"/>
+      <c r="AB5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC5" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="72">
+        <v>7.5</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="61"/>
+      <c r="AB6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC6" s="59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="72">
+        <v>3</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC7" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="72">
+        <v>3</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+    </row>
+    <row r="9" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="72">
+        <v>3</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="80">
+        <v>45475</v>
+      </c>
+      <c r="J9" s="66"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+    </row>
+    <row r="10" spans="1:29" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="72">
+        <v>9</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+    </row>
+    <row r="11" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="72">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+    </row>
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF80E85-46BA-4B31-B565-EFD48E69643B}">
+  <dimension ref="A1:AC13"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="291.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="74">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="64">
+        <v>30</v>
+      </c>
+      <c r="F2" s="62"/>
+      <c r="G2" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="R2" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="S2" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="T2" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="U2" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="V2" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="W2" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="X2" s="62"/>
+      <c r="Y2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z2" s="59">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="61"/>
+      <c r="AB2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC2" s="59">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="75">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z3" s="59">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="61"/>
+      <c r="AB3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC3" s="59">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="61"/>
+      <c r="AB4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="75">
+        <v>3</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="61"/>
+      <c r="AB5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC5" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="75">
+        <v>3</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="61"/>
+      <c r="AB6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC6" s="59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="75">
+        <v>3</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC7" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="75">
+        <v>8</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+    </row>
+    <row r="9" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="75">
+        <v>3</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" s="66"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+    </row>
+    <row r="10" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="75">
+        <v>3</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+    </row>
+    <row r="11" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="75">
+        <v>5</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+    </row>
+    <row r="12" spans="1:29" ht="88.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="68"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF5D862-FF0F-4358-B810-C7D9B96A86B1}">
   <sheetPr>
@@ -5943,36 +7399,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6044,7 +7500,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
@@ -6101,7 +7557,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>56</v>
       </c>
@@ -6156,7 +7612,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>58</v>
       </c>
@@ -6211,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>62</v>
       </c>
@@ -6258,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>64</v>
       </c>
@@ -6305,7 +7761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>65</v>
       </c>
@@ -6344,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>66</v>
       </c>
@@ -6379,7 +7835,7 @@
       <c r="AB8" s="54"/>
       <c r="AC8" s="54"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="54"/>
@@ -6410,7 +7866,7 @@
       <c r="AB9" s="54"/>
       <c r="AC9" s="54"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="54"/>
@@ -6441,7 +7897,7 @@
       <c r="AB10" s="54"/>
       <c r="AC10" s="54"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="54"/>
@@ -6472,7 +7928,7 @@
       <c r="AB11" s="54"/>
       <c r="AC11" s="54"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="54"/>
@@ -6503,7 +7959,7 @@
       <c r="AB12" s="54"/>
       <c r="AC12" s="54"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="54"/>
@@ -6534,7 +7990,7 @@
       <c r="AB13" s="54"/>
       <c r="AC13" s="54"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="54"/>
@@ -6565,7 +8021,7 @@
       <c r="AB14" s="54"/>
       <c r="AC14" s="54"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="54"/>
@@ -6596,7 +8052,7 @@
       <c r="AB15" s="54"/>
       <c r="AC15" s="54"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="54"/>
       <c r="B16" s="55"/>
       <c r="C16" s="54"/>
@@ -6627,10 +8083,789 @@
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9E6714-03CE-492B-AEB6-3F01B4DDE6A5}">
+  <dimension ref="A1:AC17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="306" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="74">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="64">
+        <v>40</v>
+      </c>
+      <c r="F2" s="62"/>
+      <c r="G2" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="R2" s="79" t="s">
+        <v>283</v>
+      </c>
+      <c r="S2" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="T2" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="U2" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="V2" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="W2" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="X2" s="62"/>
+      <c r="Y2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z2" s="59">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="61"/>
+      <c r="AB2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC2" s="59">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="277" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="75">
+        <v>2</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="R3" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="S3" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="T3" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="U3" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="V3" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="W3" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="X3" s="62"/>
+      <c r="Y3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z3" s="59">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="61"/>
+      <c r="AB3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC3" s="59">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="75">
+        <v>1</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="81" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="61"/>
+      <c r="AB4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="75">
+        <v>1</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="61"/>
+      <c r="AB5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC5" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="75">
+        <v>11</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z6" s="59">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="61"/>
+      <c r="AB6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC6" s="59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC7" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="75">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+    </row>
+    <row r="9" spans="1:29" ht="74" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="75">
+        <v>3</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+    </row>
+    <row r="10" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="75">
+        <v>3</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+    </row>
+    <row r="11" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="75">
+        <v>2</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+    </row>
+    <row r="12" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="75">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="71" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="75">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" s="75">
+        <v>1</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="71" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="75">
+        <v>3</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="75">
+        <v>2</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6646,37 +8881,37 @@
       <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6748,7 +8983,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
@@ -6817,7 +9052,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>29</v>
       </c>
@@ -6876,7 +9111,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>72</v>
       </c>
@@ -6931,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>73</v>
       </c>
@@ -6986,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>76</v>
       </c>
@@ -7041,7 +9276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>79</v>
       </c>
@@ -7092,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>82</v>
       </c>
@@ -7133,7 +9368,7 @@
       <c r="AB8" s="54"/>
       <c r="AC8" s="54"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>84</v>
       </c>
@@ -7174,7 +9409,7 @@
       <c r="AB9" s="54"/>
       <c r="AC9" s="54"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>85</v>
       </c>
@@ -7207,7 +9442,7 @@
       <c r="AB10" s="54"/>
       <c r="AC10" s="54"/>
     </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>86</v>
       </c>
@@ -7242,7 +9477,7 @@
       <c r="AB11" s="54"/>
       <c r="AC11" s="54"/>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>87</v>
       </c>
@@ -7277,7 +9512,7 @@
       <c r="AB12" s="54"/>
       <c r="AC12" s="54"/>
     </row>
-    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>88</v>
       </c>
@@ -7312,7 +9547,7 @@
       <c r="AB13" s="54"/>
       <c r="AC13" s="54"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>89</v>
       </c>
@@ -7347,7 +9582,7 @@
       <c r="AB14" s="54"/>
       <c r="AC14" s="54"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>49</v>
       </c>
@@ -7382,7 +9617,7 @@
       <c r="AB15" s="54"/>
       <c r="AC15" s="54"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>52</v>
       </c>
@@ -7417,8 +9652,8 @@
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B9:B10"/>
@@ -7439,37 +9674,37 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7541,7 +9776,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
@@ -7598,7 +9833,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>90</v>
       </c>
@@ -7653,7 +9888,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>91</v>
       </c>
@@ -7708,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>72</v>
       </c>
@@ -7755,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>93</v>
       </c>
@@ -7802,7 +10037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>95</v>
       </c>
@@ -7845,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>97</v>
       </c>
@@ -7884,7 +10119,7 @@
       <c r="AB8" s="54"/>
       <c r="AC8" s="54"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>99</v>
       </c>
@@ -7923,7 +10158,7 @@
       <c r="AB9" s="54"/>
       <c r="AC9" s="54"/>
     </row>
-    <row r="10" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>101</v>
       </c>
@@ -7958,7 +10193,7 @@
       <c r="AB10" s="54"/>
       <c r="AC10" s="54"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>89</v>
       </c>
@@ -7993,7 +10228,7 @@
       <c r="AB11" s="54"/>
       <c r="AC11" s="54"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="54"/>
@@ -8024,7 +10259,7 @@
       <c r="AB12" s="54"/>
       <c r="AC12" s="54"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="54"/>
@@ -8055,7 +10290,7 @@
       <c r="AB13" s="54"/>
       <c r="AC13" s="54"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="54"/>
@@ -8086,7 +10321,7 @@
       <c r="AB14" s="54"/>
       <c r="AC14" s="54"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="54"/>
@@ -8117,7 +10352,7 @@
       <c r="AB15" s="54"/>
       <c r="AC15" s="54"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="54"/>
@@ -8148,8 +10383,8 @@
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8167,36 +10402,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="7" width="73.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="89.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="65.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="4"/>
+    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="4"/>
+    <col min="7" max="7" width="73.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="4"/>
+    <col min="12" max="12" width="89.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="4"/>
+    <col min="18" max="18" width="65.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8268,7 +10503,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -8339,7 +10574,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
@@ -8402,7 +10637,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
@@ -8461,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -8518,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
@@ -8569,7 +10804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
@@ -8616,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -8659,7 +10894,7 @@
       <c r="AB8" s="54"/>
       <c r="AC8" s="54"/>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>116</v>
       </c>
@@ -8702,7 +10937,7 @@
       <c r="AB9" s="54"/>
       <c r="AC9" s="54"/>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>118</v>
       </c>
@@ -8745,7 +10980,7 @@
       <c r="AB10" s="54"/>
       <c r="AC10" s="54"/>
     </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
@@ -8780,7 +11015,7 @@
       <c r="AB11" s="54"/>
       <c r="AC11" s="54"/>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -8815,7 +11050,7 @@
       <c r="AB12" s="54"/>
       <c r="AC12" s="54"/>
     </row>
-    <row r="13" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -8850,7 +11085,7 @@
       <c r="AB13" s="54"/>
       <c r="AC13" s="54"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -8885,7 +11120,7 @@
       <c r="AB14" s="54"/>
       <c r="AC14" s="54"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -8920,7 +11155,7 @@
       <c r="AB15" s="54"/>
       <c r="AC15" s="54"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="54"/>
       <c r="B16" s="55"/>
       <c r="C16" s="54"/>
@@ -8951,8 +11186,8 @@
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8970,36 +11205,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9071,7 +11306,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
@@ -9130,7 +11365,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>121</v>
       </c>
@@ -9186,7 +11421,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>122</v>
       </c>
@@ -9222,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>123</v>
       </c>
@@ -9243,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>124</v>
       </c>
@@ -9264,7 +11499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>125</v>
       </c>
@@ -9281,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>126</v>
       </c>
@@ -9289,7 +11524,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>127</v>
       </c>
@@ -9297,7 +11532,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>128</v>
       </c>
@@ -9305,7 +11540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>129</v>
       </c>
@@ -9313,7 +11548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>130</v>
       </c>
@@ -9321,7 +11556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>131</v>
       </c>
@@ -9329,7 +11564,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>132</v>
       </c>
@@ -9337,7 +11572,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>133</v>
       </c>
@@ -9345,7 +11580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>134</v>
       </c>
@@ -9353,7 +11588,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>135</v>
       </c>
@@ -9361,7 +11596,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>52</v>
       </c>
@@ -9369,7 +11604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>49</v>
       </c>
@@ -9377,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>136</v>
       </c>
@@ -9385,8 +11620,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:2" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9403,40 +11638,40 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.88671875" style="10" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="10"/>
-    <col min="28" max="28" width="14.33203125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="12.88671875" style="10" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.90625" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" style="10"/>
+    <col min="28" max="28" width="14.36328125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="12.90625" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9508,7 +11743,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
@@ -9581,7 +11816,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>107</v>
       </c>
@@ -9636,7 +11871,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -9685,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>141</v>
       </c>
@@ -9721,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>143</v>
       </c>
@@ -9757,7 +11992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>144</v>
       </c>
@@ -9789,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>146</v>
       </c>
@@ -9812,7 +12047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>148</v>
       </c>
@@ -9835,7 +12070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>150</v>
       </c>
@@ -9858,7 +12093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>152</v>
       </c>
@@ -9881,7 +12116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>154</v>
       </c>
@@ -9904,7 +12139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>135</v>
       </c>
@@ -9912,11 +12147,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9933,36 +12168,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -10034,7 +12269,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
@@ -10085,7 +12320,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>156</v>
       </c>
@@ -10137,7 +12372,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>159</v>
       </c>
@@ -10181,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>161</v>
       </c>
@@ -10214,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>163</v>
       </c>
@@ -10247,7 +12482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>165</v>
       </c>
@@ -10274,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>135</v>
       </c>
@@ -10298,36 +12533,36 @@
       <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="10"/>
-    <col min="4" max="4" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="10"/>
-    <col min="7" max="7" width="73.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="10"/>
-    <col min="12" max="12" width="89.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="10"/>
-    <col min="18" max="18" width="65.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="10"/>
+    <col min="4" max="4" width="15.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="10"/>
+    <col min="7" max="7" width="73.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="10"/>
+    <col min="12" max="12" width="89.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="10"/>
+    <col min="18" max="18" width="65.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -10399,7 +12634,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
@@ -10454,7 +12689,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.45">
       <c r="A3" s="39" t="s">
         <v>167</v>
       </c>
@@ -10495,7 +12730,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>170</v>
       </c>
@@ -10531,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>171</v>
       </c>
@@ -10564,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>173</v>
       </c>
@@ -10597,7 +12832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>175</v>
       </c>
@@ -10626,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>177</v>
       </c>
@@ -10646,7 +12881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>179</v>
       </c>
@@ -10666,7 +12901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>181</v>
       </c>
@@ -10686,7 +12921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>89</v>
       </c>
@@ -10702,7 +12937,7 @@
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>184</v>
       </c>
@@ -10716,12 +12951,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10902,15 +13134,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10935,10 +13171,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8611176-D792-4DA0-BDA2-38E7EE385960}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B508F24-36F8-47A9-83CF-BF435D489A5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>